--- a/capiq_data/in_process_data/IQ356805.xlsx
+++ b/capiq_data/in_process_data/IQ356805.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0430A0-7B61-4F79-953D-E2C9BC6F7A4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF9E6B3-0A5A-4731-B0A8-6CAD0FBD577F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"d59e8029-614b-4d61-ba7e-1f53c8502e76"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"e5dc1c4d-03ba-4b75-beca-4f1fd9826626"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
+  </si>
+  <si>
+    <t>FQ22011</t>
   </si>
   <si>
     <t>FQ32011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40512</v>
+        <v>36860</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>82.364000000000004</v>
+        <v>7.5679999999999996</v>
       </c>
       <c r="D2">
-        <v>2225.9290000000001</v>
+        <v>561.69299999999998</v>
       </c>
       <c r="E2">
-        <v>66.045000000000002</v>
+        <v>107.88</v>
       </c>
       <c r="F2">
-        <v>353.65499999999997</v>
+        <v>71.679000000000002</v>
       </c>
       <c r="G2">
-        <v>1337.5</v>
+        <v>440.35500000000002</v>
       </c>
       <c r="H2">
-        <v>6695.3919999999998</v>
+        <v>668.99300000000005</v>
       </c>
       <c r="I2">
-        <v>218.03700000000001</v>
+        <v>79.989000000000004</v>
       </c>
       <c r="J2">
-        <v>3886.8710000000001</v>
+        <v>42.735999999999997</v>
       </c>
       <c r="K2">
-        <v>0.67700000000000005</v>
+        <v>60.911999999999999</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,81 +892,81 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>469.25400000000002</v>
+        <v>227.80199999999999</v>
       </c>
       <c r="O2">
-        <v>4511.9070000000002</v>
+        <v>284.99099999999999</v>
       </c>
       <c r="P2">
-        <v>4055.6529999999998</v>
+        <v>157.20500000000001</v>
       </c>
       <c r="Q2">
-        <v>19.228000000000002</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="R2">
-        <v>40512</v>
+        <v>36860</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>2183.4850000000001</v>
+        <v>384.00200000000001</v>
       </c>
       <c r="U2">
-        <v>74.391000000000005</v>
+        <v>7.5090000000000003</v>
       </c>
       <c r="V2">
-        <v>-13.022</v>
+        <v>-11.257</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>48.994</v>
+        <v>10.003</v>
       </c>
       <c r="Y2">
-        <v>28.524999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>82.364000000000004</v>
+        <v>7.5679999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40602</v>
+        <v>36950</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>86.126999999999995</v>
+        <v>7.7809999999999997</v>
       </c>
       <c r="D3">
-        <v>2357.6329999999998</v>
+        <v>886.05499999999995</v>
       </c>
       <c r="E3">
-        <v>119.59699999999999</v>
+        <v>60.526000000000003</v>
       </c>
       <c r="F3">
-        <v>374.791</v>
+        <v>82.069000000000003</v>
       </c>
       <c r="G3">
-        <v>1410.098</v>
+        <v>492.90699999999998</v>
       </c>
       <c r="H3">
-        <v>7125.549</v>
+        <v>710.95299999999997</v>
       </c>
       <c r="I3">
-        <v>265.928</v>
+        <v>82.483000000000004</v>
       </c>
       <c r="J3">
-        <v>3881.1419999999998</v>
+        <v>83.057000000000002</v>
       </c>
       <c r="K3">
-        <v>1.002</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -855,164 +975,164 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>522.67100000000005</v>
+        <v>225.93700000000001</v>
       </c>
       <c r="O3">
-        <v>4886.3</v>
+        <v>319.45</v>
       </c>
       <c r="P3">
-        <v>4398.732</v>
+        <v>192.19499999999999</v>
       </c>
       <c r="Q3">
-        <v>-33.270000000000003</v>
+        <v>1.2929999999999999</v>
       </c>
       <c r="R3">
-        <v>40602</v>
+        <v>36950</v>
       </c>
       <c r="S3">
-        <v>15565</v>
+        <v>6745</v>
       </c>
       <c r="T3">
-        <v>2239.2489999999998</v>
+        <v>391.50299999999999</v>
       </c>
       <c r="U3">
-        <v>41.121000000000002</v>
+        <v>8.8019999999999996</v>
       </c>
       <c r="V3">
-        <v>15.73</v>
+        <v>-30.620999999999999</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-14.381</v>
+        <v>34.597999999999999</v>
       </c>
       <c r="Y3">
-        <v>367.61700000000002</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>86.126999999999995</v>
+        <v>7.7809999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40694</v>
+        <v>37042</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>125.5</v>
+        <v>26.571999999999999</v>
       </c>
       <c r="D4">
-        <v>2787.317</v>
+        <v>879</v>
       </c>
       <c r="E4">
-        <v>85.058000000000007</v>
+        <v>164.67599999999999</v>
       </c>
       <c r="F4">
-        <v>452.75599999999997</v>
+        <v>103.96</v>
       </c>
       <c r="G4">
-        <v>1540.953</v>
+        <v>578.697</v>
       </c>
       <c r="H4">
-        <v>7160.0309999999999</v>
+        <v>795.40200000000004</v>
       </c>
       <c r="I4">
-        <v>281.245</v>
+        <v>108.455</v>
       </c>
       <c r="J4">
-        <v>4001.1219999999998</v>
+        <v>92.93</v>
       </c>
       <c r="K4">
-        <v>1.1719999999999999</v>
+        <v>2.6160000000000001</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>-1108.596</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>576.82899999999995</v>
+        <v>271.11200000000002</v>
       </c>
       <c r="O4">
-        <v>4729.6049999999996</v>
+        <v>374.46899999999999</v>
       </c>
       <c r="P4">
-        <v>4178.9989999999998</v>
+        <v>216.53200000000001</v>
       </c>
       <c r="Q4">
-        <v>114.88200000000001</v>
+        <v>1.7130000000000001</v>
       </c>
       <c r="R4">
-        <v>40694</v>
+        <v>37042</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2430.4259999999999</v>
+        <v>420.93299999999999</v>
       </c>
       <c r="U4">
-        <v>156.00299999999999</v>
+        <v>10.515000000000001</v>
       </c>
       <c r="V4">
-        <v>24.904</v>
+        <v>-19.053000000000001</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>129.45699999999999</v>
+        <v>24.113</v>
       </c>
       <c r="Y4">
-        <v>28.125</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>125.5</v>
+        <v>26.571999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40786</v>
+        <v>37134</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>111.154</v>
+        <v>27.390999999999998</v>
       </c>
       <c r="D5">
-        <v>2699.6190000000001</v>
+        <v>946.94799999999998</v>
       </c>
       <c r="E5">
-        <v>64.849000000000004</v>
+        <v>160.624</v>
       </c>
       <c r="F5">
-        <v>418.101</v>
+        <v>150.803</v>
       </c>
       <c r="G5">
-        <v>1495.819</v>
+        <v>574.04200000000003</v>
       </c>
       <c r="H5">
-        <v>7358.9750000000004</v>
+        <v>694.45299999999997</v>
       </c>
       <c r="I5">
-        <v>226.89599999999999</v>
+        <v>99.176000000000002</v>
       </c>
       <c r="J5">
-        <v>4169.0370000000003</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="K5">
-        <v>1.333</v>
+        <v>1.359</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>490.29</v>
+        <v>234.11799999999999</v>
       </c>
       <c r="O5">
-        <v>4806.7529999999997</v>
+        <v>245.44200000000001</v>
       </c>
       <c r="P5">
-        <v>4345.2579999999998</v>
+        <v>89.966999999999999</v>
       </c>
       <c r="Q5">
-        <v>25.91</v>
+        <v>14.042</v>
       </c>
       <c r="R5">
-        <v>40786</v>
+        <v>37134</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>2552.2220000000002</v>
+        <v>449.01100000000002</v>
       </c>
       <c r="U5">
-        <v>181.91300000000001</v>
+        <v>24.556999999999999</v>
       </c>
       <c r="V5">
-        <v>-100.828</v>
+        <v>48.978000000000002</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>161.39599999999999</v>
+        <v>-125.89700000000001</v>
       </c>
       <c r="Y5">
-        <v>27.931000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>-2.4550000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>111.154</v>
+        <v>27.390999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40877</v>
+        <v>37225</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>82.11</v>
+        <v>18.443000000000001</v>
       </c>
       <c r="D6">
-        <v>2374.8139999999999</v>
+        <v>852.67</v>
       </c>
       <c r="E6">
-        <v>54.521999999999998</v>
+        <v>161.19800000000001</v>
       </c>
       <c r="F6">
-        <v>365.84399999999999</v>
+        <v>112.916</v>
       </c>
       <c r="G6">
-        <v>1648.3989999999999</v>
+        <v>531.28099999999995</v>
       </c>
       <c r="H6">
-        <v>7633.4009999999998</v>
+        <v>661.88199999999995</v>
       </c>
       <c r="I6">
-        <v>246.393</v>
+        <v>93.218999999999994</v>
       </c>
       <c r="J6">
-        <v>4318.0460000000003</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="K6">
-        <v>0.75900000000000001</v>
+        <v>1.083</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,81 +1224,81 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>531.31600000000003</v>
+        <v>181.53899999999999</v>
       </c>
       <c r="O6">
-        <v>4996.549</v>
+        <v>193.88399999999999</v>
       </c>
       <c r="P6">
-        <v>4494.5389999999998</v>
+        <v>44.947000000000003</v>
       </c>
       <c r="Q6">
-        <v>201.49799999999999</v>
+        <v>-14.542999999999999</v>
       </c>
       <c r="R6">
-        <v>40877</v>
+        <v>37225</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>2636.8519999999999</v>
+        <v>467.99799999999999</v>
       </c>
       <c r="U6">
-        <v>383.411</v>
+        <v>10.013999999999999</v>
       </c>
       <c r="V6">
-        <v>82.257000000000005</v>
+        <v>44.127000000000002</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>163.63900000000001</v>
+        <v>-44.488999999999997</v>
       </c>
       <c r="Y6">
-        <v>27.713000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.255</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>82.11</v>
+        <v>18.443000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40968</v>
+        <v>37315</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>95.031000000000006</v>
+        <v>18.396000000000001</v>
       </c>
       <c r="D7">
-        <v>2590.549</v>
+        <v>876.84100000000001</v>
       </c>
       <c r="E7">
-        <v>86.433999999999997</v>
+        <v>50.441000000000003</v>
       </c>
       <c r="F7">
-        <v>404.245</v>
+        <v>118.187</v>
       </c>
       <c r="G7">
-        <v>1853.4480000000001</v>
+        <v>577.70299999999997</v>
       </c>
       <c r="H7">
-        <v>8331.5429999999997</v>
+        <v>720.22199999999998</v>
       </c>
       <c r="I7">
-        <v>322.84899999999999</v>
+        <v>87.16</v>
       </c>
       <c r="J7">
-        <v>4509.7520000000004</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.94299999999999995</v>
+        <v>9.84</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1187,164 +1307,164 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>646.31299999999999</v>
+        <v>223.392</v>
       </c>
       <c r="O7">
-        <v>5658.4309999999996</v>
+        <v>234.74299999999999</v>
       </c>
       <c r="P7">
-        <v>5054.6840000000002</v>
+        <v>88.447999999999993</v>
       </c>
       <c r="Q7">
-        <v>59.247</v>
+        <v>-6.7279999999999998</v>
       </c>
       <c r="R7">
-        <v>40968</v>
+        <v>37315</v>
       </c>
       <c r="S7">
-        <v>16460</v>
+        <v>7488</v>
       </c>
       <c r="T7">
-        <v>2673.1120000000001</v>
+        <v>485.47899999999998</v>
       </c>
       <c r="U7">
-        <v>442.65800000000002</v>
+        <v>3.286</v>
       </c>
       <c r="V7">
-        <v>-68.497</v>
+        <v>-31.411000000000001</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>228.61099999999999</v>
+        <v>40.567999999999998</v>
       </c>
       <c r="Y7">
-        <v>353.56599999999997</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>-0.38600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>95.031000000000006</v>
+        <v>18.396000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41060</v>
+        <v>37407</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>120.746</v>
+        <v>29.238</v>
       </c>
       <c r="D8">
-        <v>2894.72</v>
+        <v>1013.503</v>
       </c>
       <c r="E8">
-        <v>65.704999999999998</v>
+        <v>54.906999999999996</v>
       </c>
       <c r="F8">
-        <v>457.09399999999999</v>
+        <v>141.97999999999999</v>
       </c>
       <c r="G8">
-        <v>1931.0070000000001</v>
+        <v>663.31899999999996</v>
       </c>
       <c r="H8">
-        <v>8598.1630000000005</v>
+        <v>830.21799999999996</v>
       </c>
       <c r="I8">
-        <v>293.92399999999998</v>
+        <v>91.478999999999999</v>
       </c>
       <c r="J8">
-        <v>4672.9210000000003</v>
+        <v>100</v>
       </c>
       <c r="K8">
-        <v>0.79100000000000004</v>
+        <v>9.7609999999999992</v>
       </c>
       <c r="L8">
-        <v>-0.152</v>
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="M8">
-        <v>-560.19600000000003</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>618.51599999999996</v>
+        <v>201.172</v>
       </c>
       <c r="O8">
-        <v>5777.8149999999996</v>
+        <v>312.80200000000002</v>
       </c>
       <c r="P8">
-        <v>5190.3580000000002</v>
+        <v>165.08500000000001</v>
       </c>
       <c r="Q8">
-        <v>13.755000000000001</v>
+        <v>58.158999999999999</v>
       </c>
       <c r="R8">
-        <v>41060</v>
+        <v>37407</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2820.348</v>
+        <v>517.41600000000005</v>
       </c>
       <c r="U8">
-        <v>456.41300000000001</v>
+        <v>61.445</v>
       </c>
       <c r="V8">
-        <v>-115.52</v>
+        <v>9.1419999999999995</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>149.69399999999999</v>
+        <v>77.543999999999997</v>
       </c>
       <c r="Y8">
-        <v>349.64800000000002</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>-1.0960000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>120.746</v>
+        <v>29.238</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41152</v>
+        <v>37499</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>111.636</v>
+        <v>31.713999999999999</v>
       </c>
       <c r="D9">
-        <v>2881.5039999999999</v>
+        <v>1088.3820000000001</v>
       </c>
       <c r="E9">
-        <v>70.426000000000002</v>
+        <v>80.774000000000001</v>
       </c>
       <c r="F9">
-        <v>443.66899999999998</v>
+        <v>150.922</v>
       </c>
       <c r="G9">
-        <v>1961.548</v>
+        <v>650.99400000000003</v>
       </c>
       <c r="H9">
-        <v>8871.44</v>
+        <v>825.92200000000003</v>
       </c>
       <c r="I9">
-        <v>216.822</v>
+        <v>97.388000000000005</v>
       </c>
       <c r="J9">
-        <v>4909.7020000000002</v>
+        <v>100</v>
       </c>
       <c r="K9">
-        <v>1.0680000000000001</v>
+        <v>5.2060000000000004</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>525.83900000000006</v>
+        <v>159.643</v>
       </c>
       <c r="O9">
-        <v>5921.8530000000001</v>
+        <v>271.77</v>
       </c>
       <c r="P9">
-        <v>5447.6229999999996</v>
+        <v>106.032</v>
       </c>
       <c r="Q9">
-        <v>2.1539999999999999</v>
+        <v>13.244999999999999</v>
       </c>
       <c r="R9">
-        <v>41152</v>
+        <v>37499</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>2949.587</v>
+        <v>554.15200000000004</v>
       </c>
       <c r="U9">
-        <v>458.56700000000001</v>
+        <v>74.69</v>
       </c>
       <c r="V9">
-        <v>-170.41200000000001</v>
+        <v>83.99</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>254.654</v>
+        <v>-59.216000000000001</v>
       </c>
       <c r="Y9">
-        <v>345.62799999999999</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.187</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>111.636</v>
+        <v>31.713999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41243</v>
+        <v>37590</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>94.680999999999997</v>
+        <v>14.717000000000001</v>
       </c>
       <c r="D10">
-        <v>2727.5459999999998</v>
+        <v>943.61900000000003</v>
       </c>
       <c r="E10">
-        <v>62.66</v>
+        <v>59.558999999999997</v>
       </c>
       <c r="F10">
-        <v>417.673</v>
+        <v>126.16</v>
       </c>
       <c r="G10">
-        <v>2085.364</v>
+        <v>654.93299999999999</v>
       </c>
       <c r="H10">
-        <v>9297.6830000000009</v>
+        <v>821.38599999999997</v>
       </c>
       <c r="I10">
-        <v>271.29500000000002</v>
+        <v>108.003</v>
       </c>
       <c r="J10">
-        <v>5211.0640000000003</v>
+        <v>100</v>
       </c>
       <c r="K10">
-        <v>0.70599999999999996</v>
+        <v>4.4850000000000003</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,81 +1556,81 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>575.69200000000001</v>
+        <v>167.161</v>
       </c>
       <c r="O10">
-        <v>6274.0140000000001</v>
+        <v>281.20499999999998</v>
       </c>
       <c r="P10">
-        <v>5739.99</v>
+        <v>105.31100000000001</v>
       </c>
       <c r="Q10">
-        <v>-13.457000000000001</v>
+        <v>-43.036000000000001</v>
       </c>
       <c r="R10">
-        <v>41243</v>
+        <v>37590</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>3023.6689999999999</v>
+        <v>540.18100000000004</v>
       </c>
       <c r="U10">
-        <v>445.11</v>
+        <v>31.654</v>
       </c>
       <c r="V10">
-        <v>-213.29599999999999</v>
+        <v>-20.390999999999998</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>276.54700000000003</v>
+        <v>-29.309000000000001</v>
       </c>
       <c r="Y10">
-        <v>341.42399999999998</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>-0.29799999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>94.680999999999997</v>
+        <v>14.717000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41333</v>
+        <v>37680</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>107.221</v>
+        <v>19.132999999999999</v>
       </c>
       <c r="D11">
-        <v>2954.348</v>
+        <v>953.24</v>
       </c>
       <c r="E11">
-        <v>91.960999999999999</v>
+        <v>56.448999999999998</v>
       </c>
       <c r="F11">
-        <v>445.19299999999998</v>
+        <v>131.57599999999999</v>
       </c>
       <c r="G11">
-        <v>2310.1309999999999</v>
+        <v>708.745</v>
       </c>
       <c r="H11">
-        <v>9888.6020000000008</v>
+        <v>917.61699999999996</v>
       </c>
       <c r="I11">
-        <v>336.20400000000001</v>
+        <v>117.587</v>
       </c>
       <c r="J11">
-        <v>5672.1750000000002</v>
+        <v>100</v>
       </c>
       <c r="K11">
-        <v>0.35499999999999998</v>
+        <v>56.051000000000002</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1519,164 +1639,164 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>684.173</v>
+        <v>248.10300000000001</v>
       </c>
       <c r="O11">
-        <v>6869.4350000000004</v>
+        <v>363.048</v>
       </c>
       <c r="P11">
-        <v>6209.5529999999999</v>
+        <v>156.05099999999999</v>
       </c>
       <c r="Q11">
-        <v>4.2539999999999996</v>
+        <v>2.9609999999999999</v>
       </c>
       <c r="R11">
-        <v>41333</v>
+        <v>37680</v>
       </c>
       <c r="S11">
-        <v>18111</v>
+        <v>6310</v>
       </c>
       <c r="T11">
-        <v>3019.1669999999999</v>
+        <v>554.56899999999996</v>
       </c>
       <c r="U11">
-        <v>449.36399999999998</v>
+        <v>34.615000000000002</v>
       </c>
       <c r="V11">
-        <v>-279.21300000000002</v>
+        <v>-0.77400000000000002</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>359.52600000000001</v>
+        <v>50.753999999999998</v>
       </c>
       <c r="Y11">
-        <v>337.452</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>-0.23100000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>107.221</v>
+        <v>19.132999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41425</v>
+        <v>37772</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>146.65100000000001</v>
+        <v>35.26</v>
       </c>
       <c r="D12">
-        <v>3444.5569999999998</v>
+        <v>1183.0350000000001</v>
       </c>
       <c r="E12">
-        <v>70.451999999999998</v>
+        <v>73.94</v>
       </c>
       <c r="F12">
-        <v>535.11500000000001</v>
+        <v>173.51900000000001</v>
       </c>
       <c r="G12">
-        <v>2454.7730000000001</v>
+        <v>710.26700000000005</v>
       </c>
       <c r="H12">
-        <v>10450.454</v>
+        <v>951.65200000000004</v>
       </c>
       <c r="I12">
-        <v>316.64</v>
+        <v>139.82400000000001</v>
       </c>
       <c r="J12">
-        <v>6160.2420000000002</v>
+        <v>100</v>
       </c>
       <c r="K12">
-        <v>0.97199999999999998</v>
+        <v>14.532</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>-41.518999999999998</v>
       </c>
       <c r="M12">
-        <v>-1265.5309999999999</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>710.23400000000004</v>
+        <v>247.565</v>
       </c>
       <c r="O12">
-        <v>7375.0720000000001</v>
+        <v>359.54899999999998</v>
       </c>
       <c r="P12">
-        <v>6718.1220000000003</v>
+        <v>114.532</v>
       </c>
       <c r="Q12">
-        <v>275.90300000000002</v>
+        <v>-2.5859999999999999</v>
       </c>
       <c r="R12">
-        <v>41425</v>
+        <v>37772</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>3075.3820000000001</v>
+        <v>592.10299999999995</v>
       </c>
       <c r="U12">
-        <v>725.26700000000005</v>
+        <v>32.029000000000003</v>
       </c>
       <c r="V12">
-        <v>-77.578999999999994</v>
+        <v>72.632000000000005</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>399.99400000000003</v>
+        <v>-40.317</v>
       </c>
       <c r="Y12">
-        <v>332.96499999999997</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>-1.161</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>146.65100000000001</v>
+        <v>35.26</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41517</v>
+        <v>37864</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>140.274</v>
+        <v>39.610999999999997</v>
       </c>
       <c r="D13">
-        <v>3382.752</v>
+        <v>1245.7570000000001</v>
       </c>
       <c r="E13">
-        <v>85.549000000000007</v>
+        <v>67.707999999999998</v>
       </c>
       <c r="F13">
-        <v>519.16499999999996</v>
+        <v>185.78200000000001</v>
       </c>
       <c r="G13">
-        <v>2481.41</v>
+        <v>705.42399999999998</v>
       </c>
       <c r="H13">
-        <v>10933.773999999999</v>
+        <v>965.63599999999997</v>
       </c>
       <c r="I13">
-        <v>346.15199999999999</v>
+        <v>115.366</v>
       </c>
       <c r="J13">
-        <v>6512.3280000000004</v>
+        <v>100</v>
       </c>
       <c r="K13">
-        <v>1.7390000000000001</v>
+        <v>3.3530000000000002</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>729.91899999999998</v>
+        <v>215.69800000000001</v>
       </c>
       <c r="O13">
-        <v>7748.9949999999999</v>
+        <v>328.61900000000003</v>
       </c>
       <c r="P13">
-        <v>7074.83</v>
+        <v>103.35299999999999</v>
       </c>
       <c r="Q13">
-        <v>24.765000000000001</v>
+        <v>13.298999999999999</v>
       </c>
       <c r="R13">
-        <v>41517</v>
+        <v>37864</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>3184.779</v>
+        <v>637.01700000000005</v>
       </c>
       <c r="U13">
-        <v>750.03200000000004</v>
+        <v>45.328000000000003</v>
       </c>
       <c r="V13">
-        <v>-186.03</v>
+        <v>45.335000000000001</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>312.96800000000002</v>
+        <v>-9.1850000000000005</v>
       </c>
       <c r="Y13">
-        <v>325.49200000000002</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>-0.21099999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>140.274</v>
+        <v>39.61</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41608</v>
+        <v>37955</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>106.452</v>
+        <v>19.052</v>
       </c>
       <c r="D14">
-        <v>3079.7069999999999</v>
+        <v>1080.5340000000001</v>
       </c>
       <c r="E14">
-        <v>68.027000000000001</v>
+        <v>60.853000000000002</v>
       </c>
       <c r="F14">
-        <v>465.62599999999998</v>
+        <v>143.89099999999999</v>
       </c>
       <c r="G14">
-        <v>2558.7939999999999</v>
+        <v>729.88800000000003</v>
       </c>
       <c r="H14">
-        <v>11303.875</v>
+        <v>993.30600000000004</v>
       </c>
       <c r="I14">
-        <v>364.589</v>
+        <v>127.899</v>
       </c>
       <c r="J14">
-        <v>6755.5339999999997</v>
+        <v>100</v>
       </c>
       <c r="K14">
-        <v>1.2869999999999999</v>
+        <v>6.2670000000000003</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,81 +1888,81 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>748.601</v>
+        <v>222.18199999999999</v>
       </c>
       <c r="O14">
-        <v>8015.5060000000003</v>
+        <v>335.50099999999998</v>
       </c>
       <c r="P14">
-        <v>7312.8729999999996</v>
+        <v>106.267</v>
       </c>
       <c r="Q14">
-        <v>-85.274000000000001</v>
+        <v>9.6340000000000003</v>
       </c>
       <c r="R14">
-        <v>41608</v>
+        <v>37955</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>3288.3690000000001</v>
+        <v>657.80499999999995</v>
       </c>
       <c r="U14">
-        <v>664.75800000000004</v>
+        <v>54.962000000000003</v>
       </c>
       <c r="V14">
-        <v>-229.53100000000001</v>
+        <v>13.071</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>224.27099999999999</v>
+        <v>3.516</v>
       </c>
       <c r="Y14">
-        <v>320.791</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>1.3720000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>106.452</v>
+        <v>19.053000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41698</v>
+        <v>38046</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>99.209000000000003</v>
+        <v>22.527000000000001</v>
       </c>
       <c r="D15">
-        <v>3215.2829999999999</v>
+        <v>1126.2650000000001</v>
       </c>
       <c r="E15">
-        <v>79.923000000000002</v>
+        <v>72.358000000000004</v>
       </c>
       <c r="F15">
-        <v>464.96199999999999</v>
+        <v>152.65899999999999</v>
       </c>
       <c r="G15">
-        <v>2643.2240000000002</v>
+        <v>773.48099999999999</v>
       </c>
       <c r="H15">
-        <v>11707.156999999999</v>
+        <v>1047.8869999999999</v>
       </c>
       <c r="I15">
-        <v>426.14100000000002</v>
+        <v>145.517</v>
       </c>
       <c r="J15">
-        <v>7024.5060000000003</v>
+        <v>100</v>
       </c>
       <c r="K15">
-        <v>0.58199999999999996</v>
+        <v>4.4459999999999997</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1851,164 +1971,164 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>875.49699999999996</v>
+        <v>242.398</v>
       </c>
       <c r="O15">
-        <v>8390.16</v>
+        <v>367.13400000000001</v>
       </c>
       <c r="P15">
-        <v>7584.7610000000004</v>
+        <v>104.446</v>
       </c>
       <c r="Q15">
-        <v>-36.856999999999999</v>
+        <v>6.681</v>
       </c>
       <c r="R15">
-        <v>41698</v>
+        <v>38046</v>
       </c>
       <c r="S15">
-        <v>20171</v>
+        <v>9355</v>
       </c>
       <c r="T15">
-        <v>3316.9969999999998</v>
+        <v>680.75300000000004</v>
       </c>
       <c r="U15">
-        <v>627.90099999999995</v>
+        <v>61.643000000000001</v>
       </c>
       <c r="V15">
-        <v>-120.023</v>
+        <v>17.425999999999998</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>191.148</v>
+        <v>-1.605</v>
       </c>
       <c r="Y15">
-        <v>315.92500000000001</v>
+        <v>0</v>
       </c>
       <c r="Z15">
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>99.209000000000003</v>
+        <v>22.527000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41790</v>
+        <v>38138</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>169.65299999999999</v>
+        <v>35.33</v>
       </c>
       <c r="D16">
-        <v>3897.1959999999999</v>
+        <v>1335.99</v>
       </c>
       <c r="E16">
-        <v>97.81</v>
+        <v>92.623999999999995</v>
       </c>
       <c r="F16">
-        <v>596.346</v>
+        <v>189.04599999999999</v>
       </c>
       <c r="G16">
-        <v>2636.7359999999999</v>
+        <v>836.49300000000005</v>
       </c>
       <c r="H16">
-        <v>12148.96</v>
+        <v>1123.2570000000001</v>
       </c>
       <c r="I16">
-        <v>430.98500000000001</v>
+        <v>156.40799999999999</v>
       </c>
       <c r="J16">
-        <v>7373.0029999999997</v>
+        <v>100</v>
       </c>
       <c r="K16">
-        <v>1.242</v>
+        <v>28.181999999999999</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>-1522.673</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>962.15800000000002</v>
+        <v>288.66399999999999</v>
       </c>
       <c r="O16">
-        <v>8819.5879999999997</v>
+        <v>403.75299999999999</v>
       </c>
       <c r="P16">
-        <v>7965.8239999999996</v>
+        <v>128.18199999999999</v>
       </c>
       <c r="Q16">
-        <v>-95.71</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="R16">
-        <v>41790</v>
+        <v>38138</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>3329.3719999999998</v>
+        <v>719.50400000000002</v>
       </c>
       <c r="U16">
-        <v>532.19100000000003</v>
+        <v>61.676000000000002</v>
       </c>
       <c r="V16">
-        <v>-209.08</v>
+        <v>2.6240000000000001</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>207.489</v>
+        <v>25.074000000000002</v>
       </c>
       <c r="Y16">
-        <v>315.762</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>-2.766</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>169.65299999999999</v>
+        <v>35.33</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41882</v>
+        <v>38230</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>154.518</v>
+        <v>29.859000000000002</v>
       </c>
       <c r="D17">
-        <v>3749.8939999999998</v>
+        <v>1334.0070000000001</v>
       </c>
       <c r="E17">
-        <v>108.85899999999999</v>
+        <v>69.795000000000002</v>
       </c>
       <c r="F17">
-        <v>555.91300000000001</v>
+        <v>183.94399999999999</v>
       </c>
       <c r="G17">
-        <v>2516.442</v>
+        <v>766.57500000000005</v>
       </c>
       <c r="H17">
-        <v>12399.913</v>
+        <v>1097.694</v>
       </c>
       <c r="I17">
-        <v>417.05799999999999</v>
+        <v>131.495</v>
       </c>
       <c r="J17">
-        <v>7648.2839999999997</v>
+        <v>100</v>
       </c>
       <c r="K17">
-        <v>2.2290000000000001</v>
+        <v>4.6440000000000001</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>906.92700000000002</v>
+        <v>232.06200000000001</v>
       </c>
       <c r="O17">
-        <v>9041.9259999999995</v>
+        <v>347.24099999999999</v>
       </c>
       <c r="P17">
-        <v>8243.1180000000004</v>
+        <v>104.64400000000001</v>
       </c>
       <c r="Q17">
-        <v>-177.59100000000001</v>
+        <v>-5.069</v>
       </c>
       <c r="R17">
-        <v>41882</v>
+        <v>38230</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>3357.9870000000001</v>
+        <v>750.45299999999997</v>
       </c>
       <c r="U17">
-        <v>354.6</v>
+        <v>56.606999999999999</v>
       </c>
       <c r="V17">
-        <v>-227.53899999999999</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>139.62200000000001</v>
+        <v>-22.869</v>
       </c>
       <c r="Y17">
-        <v>310.68900000000002</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>2.766</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>154.518</v>
+        <v>29.859000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>41973</v>
+        <v>38321</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>130.04900000000001</v>
+        <v>18.045000000000002</v>
       </c>
       <c r="D18">
-        <v>3557.9340000000002</v>
+        <v>1226.8109999999999</v>
       </c>
       <c r="E18">
-        <v>88.18</v>
+        <v>63.694000000000003</v>
       </c>
       <c r="F18">
-        <v>536.34199999999998</v>
+        <v>165.88499999999999</v>
       </c>
       <c r="G18">
-        <v>2573.252</v>
+        <v>737.54700000000003</v>
       </c>
       <c r="H18">
-        <v>12843.406000000001</v>
+        <v>1125.059</v>
       </c>
       <c r="I18">
-        <v>459.92899999999997</v>
+        <v>133.01499999999999</v>
       </c>
       <c r="J18">
-        <v>8238.6260000000002</v>
+        <v>111.94</v>
       </c>
       <c r="K18">
-        <v>2.5739999999999998</v>
+        <v>6.3310000000000004</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,81 +2220,81 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>928.18200000000002</v>
+        <v>228.245</v>
       </c>
       <c r="O18">
-        <v>9661.2540000000008</v>
+        <v>355.82299999999998</v>
       </c>
       <c r="P18">
-        <v>8815.6929999999993</v>
+        <v>118.271</v>
       </c>
       <c r="Q18">
-        <v>-164.72</v>
+        <v>-30.844999999999999</v>
       </c>
       <c r="R18">
-        <v>41973</v>
+        <v>38321</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>3182.152</v>
+        <v>769.23599999999999</v>
       </c>
       <c r="U18">
-        <v>189.88</v>
+        <v>25.762</v>
       </c>
       <c r="V18">
-        <v>-347.99599999999998</v>
+        <v>15.881</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>265.65100000000001</v>
+        <v>1.9930000000000001</v>
       </c>
       <c r="Y18">
-        <v>311.77100000000002</v>
+        <v>0</v>
       </c>
       <c r="Z18">
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>130.04900000000001</v>
+        <v>18.045000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42063</v>
+        <v>38411</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>143.13800000000001</v>
+        <v>29.693999999999999</v>
       </c>
       <c r="D19">
-        <v>3668.5920000000001</v>
+        <v>1407.154</v>
       </c>
       <c r="E19">
-        <v>137.69</v>
+        <v>76.167000000000002</v>
       </c>
       <c r="F19">
-        <v>566.22</v>
+        <v>193.977</v>
       </c>
       <c r="G19">
-        <v>2590.9380000000001</v>
+        <v>852.98099999999999</v>
       </c>
       <c r="H19">
-        <v>13198.200999999999</v>
+        <v>1293.0129999999999</v>
       </c>
       <c r="I19">
-        <v>454.81</v>
+        <v>170.64599999999999</v>
       </c>
       <c r="J19">
-        <v>8512.4660000000003</v>
+        <v>128.41900000000001</v>
       </c>
       <c r="K19">
-        <v>0.78500000000000003</v>
+        <v>65.197000000000003</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2183,164 +2303,164 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>997.173</v>
+        <v>329.33100000000002</v>
       </c>
       <c r="O19">
-        <v>10041.415999999999</v>
+        <v>492.03699999999998</v>
       </c>
       <c r="P19">
-        <v>9109.2520000000004</v>
+        <v>193.946</v>
       </c>
       <c r="Q19">
-        <v>-162.274</v>
+        <v>4.3369999999999997</v>
       </c>
       <c r="R19">
-        <v>42063</v>
+        <v>38411</v>
       </c>
       <c r="S19">
-        <v>22064</v>
+        <v>10815</v>
       </c>
       <c r="T19">
-        <v>3156.7849999999999</v>
+        <v>800.976</v>
       </c>
       <c r="U19">
-        <v>27.606000000000002</v>
+        <v>17.123999999999999</v>
       </c>
       <c r="V19">
-        <v>-183.51499999999999</v>
+        <v>-37.869</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>115.81699999999999</v>
+        <v>59.603000000000002</v>
       </c>
       <c r="Y19">
-        <v>306.28399999999999</v>
+        <v>0</v>
       </c>
       <c r="Z19">
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>143.13800000000001</v>
+        <v>29.693999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42155</v>
+        <v>38503</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>181.97399999999999</v>
+        <v>36.979999999999997</v>
       </c>
       <c r="D20">
-        <v>4179.7879999999996</v>
+        <v>1589.96</v>
       </c>
       <c r="E20">
-        <v>103.663</v>
+        <v>79.97</v>
       </c>
       <c r="F20">
-        <v>652.90200000000004</v>
+        <v>224.83</v>
       </c>
       <c r="G20">
-        <v>2665.8249999999998</v>
+        <v>881.67399999999998</v>
       </c>
       <c r="H20">
-        <v>13670.677</v>
+        <v>1342.4970000000001</v>
       </c>
       <c r="I20">
-        <v>443.82</v>
+        <v>177.952</v>
       </c>
       <c r="J20">
-        <v>8874.7729999999992</v>
+        <v>28.315000000000001</v>
       </c>
       <c r="K20">
-        <v>0.78100000000000003</v>
+        <v>41.427999999999997</v>
       </c>
       <c r="L20">
-        <v>-4.0000000000000001E-3</v>
+        <v>-23.768999999999998</v>
       </c>
       <c r="M20">
-        <v>-2690.9630000000002</v>
+        <v>-8.3000000000000004E-2</v>
       </c>
       <c r="N20">
-        <v>999.57299999999998</v>
+        <v>434.77600000000001</v>
       </c>
       <c r="O20">
-        <v>10396.011</v>
+        <v>497.73099999999999</v>
       </c>
       <c r="P20">
-        <v>9488.64</v>
+        <v>170.09399999999999</v>
       </c>
       <c r="Q20">
-        <v>324.09199999999998</v>
+        <v>4.4189999999999996</v>
       </c>
       <c r="R20">
-        <v>42155</v>
+        <v>38503</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>3274.6660000000002</v>
+        <v>844.76599999999996</v>
       </c>
       <c r="U20">
-        <v>351.69799999999998</v>
+        <v>33.518000000000001</v>
       </c>
       <c r="V20">
-        <v>117.554</v>
+        <v>63.475999999999999</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>303.61500000000001</v>
+        <v>-20.706</v>
       </c>
       <c r="Y20">
-        <v>301.48</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>-3.87</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>181.97399999999999</v>
+        <v>36.979999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42247</v>
+        <v>38595</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>172.22800000000001</v>
+        <v>37.636000000000003</v>
       </c>
       <c r="D21">
-        <v>4054.7130000000002</v>
+        <v>1645.8530000000001</v>
       </c>
       <c r="E21">
-        <v>100.83199999999999</v>
+        <v>62.036999999999999</v>
       </c>
       <c r="F21">
-        <v>619.649</v>
+        <v>232.40799999999999</v>
       </c>
       <c r="G21">
-        <v>2503.7249999999999</v>
+        <v>869.64700000000005</v>
       </c>
       <c r="H21">
-        <v>13952.565000000001</v>
+        <v>1331.269</v>
       </c>
       <c r="I21">
-        <v>450.38200000000001</v>
+        <v>148.34100000000001</v>
       </c>
       <c r="J21">
-        <v>9156.2270000000008</v>
+        <v>35.279000000000003</v>
       </c>
       <c r="K21">
-        <v>2.1219999999999999</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1001.977</v>
+        <v>374.30700000000002</v>
       </c>
       <c r="O21">
-        <v>10741.581</v>
+        <v>442.47399999999999</v>
       </c>
       <c r="P21">
-        <v>9838.107</v>
+        <v>141.43100000000001</v>
       </c>
       <c r="Q21">
-        <v>-251.221</v>
+        <v>20.282</v>
       </c>
       <c r="R21">
-        <v>42247</v>
+        <v>38595</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>3210.9839999999999</v>
+        <v>888.79499999999996</v>
       </c>
       <c r="U21">
-        <v>100.477</v>
+        <v>53.8</v>
       </c>
       <c r="V21">
-        <v>-202.298</v>
+        <v>53.110999999999997</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>53.481999999999999</v>
+        <v>-34.113</v>
       </c>
       <c r="Y21">
-        <v>357.82499999999999</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>-0.38400000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>172.22800000000001</v>
+        <v>37.636000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42338</v>
+        <v>38686</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>128.19900000000001</v>
+        <v>22.931000000000001</v>
       </c>
       <c r="D22">
-        <v>3716.3690000000001</v>
+        <v>1436.58</v>
       </c>
       <c r="E22">
-        <v>88.53</v>
+        <v>55.616</v>
       </c>
       <c r="F22">
-        <v>556.64700000000005</v>
+        <v>205.14400000000001</v>
       </c>
       <c r="G22">
-        <v>2634.8829999999998</v>
+        <v>868.79700000000003</v>
       </c>
       <c r="H22">
-        <v>14381.165000000001</v>
+        <v>1367.14</v>
       </c>
       <c r="I22">
-        <v>420.85599999999999</v>
+        <v>173.34100000000001</v>
       </c>
       <c r="J22">
-        <v>9924.09</v>
+        <v>85.036000000000001</v>
       </c>
       <c r="K22">
-        <v>3.5999999999999997E-2</v>
+        <v>4.7069999999999999</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,81 +2552,81 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>923.55399999999997</v>
+        <v>334.49900000000002</v>
       </c>
       <c r="O22">
-        <v>11469.41</v>
+        <v>448.85700000000003</v>
       </c>
       <c r="P22">
-        <v>10606.483</v>
+        <v>129.785</v>
       </c>
       <c r="Q22">
-        <v>-67.131</v>
+        <v>-24.573</v>
       </c>
       <c r="R22">
-        <v>42338</v>
+        <v>38686</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>2911.7550000000001</v>
+        <v>918.28300000000002</v>
       </c>
       <c r="U22">
-        <v>33.345999999999997</v>
+        <v>34.976999999999997</v>
       </c>
       <c r="V22">
-        <v>-296.83499999999998</v>
+        <v>22.51</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>304.84100000000001</v>
+        <v>-8.8770000000000007</v>
       </c>
       <c r="Y22">
-        <v>391.85599999999999</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>-0.40400000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>128.19900000000001</v>
+        <v>22.931000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42429</v>
+        <v>38776</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>141.02699999999999</v>
+        <v>36.673000000000002</v>
       </c>
       <c r="D23">
-        <v>3881.7049999999999</v>
+        <v>1636.5740000000001</v>
       </c>
       <c r="E23">
-        <v>132.17099999999999</v>
+        <v>76.620999999999995</v>
       </c>
       <c r="F23">
-        <v>581.59799999999996</v>
+        <v>232.65899999999999</v>
       </c>
       <c r="G23">
-        <v>2471.7809999999999</v>
+        <v>941.73800000000006</v>
       </c>
       <c r="H23">
-        <v>14459.911</v>
+        <v>1509.6120000000001</v>
       </c>
       <c r="I23">
-        <v>441.74599999999998</v>
+        <v>188.614</v>
       </c>
       <c r="J23">
-        <v>9920.3349999999991</v>
+        <v>134.78700000000001</v>
       </c>
       <c r="K23">
-        <v>0.42799999999999999</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2515,164 +2635,164 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1005.193</v>
+        <v>344.87</v>
       </c>
       <c r="O23">
-        <v>11555.125</v>
+        <v>529.50900000000001</v>
       </c>
       <c r="P23">
-        <v>10636.166999999999</v>
+        <v>195.012</v>
       </c>
       <c r="Q23">
-        <v>4.048</v>
+        <v>4.5069999999999997</v>
       </c>
       <c r="R23">
-        <v>42429</v>
+        <v>38776</v>
       </c>
       <c r="S23">
-        <v>22429</v>
+        <v>11712</v>
       </c>
       <c r="T23">
-        <v>2904.7860000000001</v>
+        <v>980.10299999999995</v>
       </c>
       <c r="U23">
-        <v>37.393999999999998</v>
+        <v>21.759</v>
       </c>
       <c r="V23">
-        <v>232.68600000000001</v>
+        <v>-21.584</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-124.462</v>
+        <v>66.911000000000001</v>
       </c>
       <c r="Y23">
-        <v>400.32299999999998</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>4.6580000000000004</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>141.02699999999999</v>
+        <v>36.673000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42521</v>
+        <v>38868</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>175.36</v>
+        <v>56.776000000000003</v>
       </c>
       <c r="D24">
-        <v>4310.4859999999999</v>
+        <v>1898.6389999999999</v>
       </c>
       <c r="E24">
-        <v>102.541</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="F24">
-        <v>673.39499999999998</v>
+        <v>280.649</v>
       </c>
       <c r="G24">
-        <v>2416.58</v>
+        <v>1027.0039999999999</v>
       </c>
       <c r="H24">
-        <v>14789.927</v>
+        <v>1616.1320000000001</v>
       </c>
       <c r="I24">
-        <v>454.52199999999999</v>
+        <v>224.30099999999999</v>
       </c>
       <c r="J24">
-        <v>10091.457</v>
+        <v>134.53399999999999</v>
       </c>
       <c r="K24">
-        <v>1.2549999999999999</v>
+        <v>1.1080000000000001</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>-3164.268</v>
+        <v>-29.234000000000002</v>
       </c>
       <c r="N24">
-        <v>1083.374</v>
+        <v>395.09399999999999</v>
       </c>
       <c r="O24">
-        <v>11817.642</v>
+        <v>562.56500000000005</v>
       </c>
       <c r="P24">
-        <v>10844.767</v>
+        <v>166.423</v>
       </c>
       <c r="Q24">
-        <v>15.180999999999999</v>
+        <v>4.2839999999999998</v>
       </c>
       <c r="R24">
-        <v>42521</v>
+        <v>38868</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>2972.2849999999999</v>
+        <v>1053.567</v>
       </c>
       <c r="U24">
-        <v>52.575000000000003</v>
+        <v>26.042999999999999</v>
       </c>
       <c r="V24">
-        <v>87.606999999999999</v>
+        <v>48.085000000000001</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>50.823999999999998</v>
+        <v>-18.721</v>
       </c>
       <c r="Y24">
-        <v>419.875</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>-2.4</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>175.36</v>
+        <v>56.776000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42613</v>
+        <v>38960</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>162.36199999999999</v>
+        <v>54.264000000000003</v>
       </c>
       <c r="D25">
-        <v>4187.4480000000003</v>
+        <v>1943.742</v>
       </c>
       <c r="E25">
-        <v>94.576999999999998</v>
+        <v>66.69</v>
       </c>
       <c r="F25">
-        <v>641.33100000000002</v>
+        <v>289.87700000000001</v>
       </c>
       <c r="G25">
-        <v>2755.3470000000002</v>
+        <v>1030.7449999999999</v>
       </c>
       <c r="H25">
-        <v>15504.332</v>
+        <v>1636.7180000000001</v>
       </c>
       <c r="I25">
-        <v>486.94299999999998</v>
+        <v>190.16800000000001</v>
       </c>
       <c r="J25">
-        <v>10703.373</v>
+        <v>34.276000000000003</v>
       </c>
       <c r="K25">
-        <v>0.36099999999999999</v>
+        <v>1.915</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1084.3630000000001</v>
+        <v>436.512</v>
       </c>
       <c r="O25">
-        <v>12441.986999999999</v>
+        <v>505.017</v>
       </c>
       <c r="P25">
-        <v>11481.808000000001</v>
+        <v>139.59299999999999</v>
       </c>
       <c r="Q25">
-        <v>263.45600000000002</v>
+        <v>-2.262</v>
       </c>
       <c r="R25">
-        <v>42613</v>
+        <v>38960</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>3062.3449999999998</v>
+        <v>1131.701</v>
       </c>
       <c r="U25">
-        <v>316.03100000000001</v>
+        <v>23.780999999999999</v>
       </c>
       <c r="V25">
-        <v>-120.616</v>
+        <v>38.665999999999997</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>522.97900000000004</v>
+        <v>-15.157999999999999</v>
       </c>
       <c r="Y25">
-        <v>427.27300000000002</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>-3.6579999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>162.36199999999999</v>
+        <v>54.264000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42704</v>
+        <v>39051</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>136.64500000000001</v>
+        <v>45.418999999999997</v>
       </c>
       <c r="D26">
-        <v>3894.2240000000002</v>
+        <v>1783.1469999999999</v>
       </c>
       <c r="E26">
-        <v>92.003</v>
+        <v>53.091999999999999</v>
       </c>
       <c r="F26">
-        <v>592.49400000000003</v>
+        <v>260.58300000000003</v>
       </c>
       <c r="G26">
-        <v>2684.2779999999998</v>
+        <v>1045.954</v>
       </c>
       <c r="H26">
-        <v>15760.066999999999</v>
+        <v>1704.6679999999999</v>
       </c>
       <c r="I26">
-        <v>476.43900000000002</v>
+        <v>222.20500000000001</v>
       </c>
       <c r="J26">
-        <v>11017.562</v>
+        <v>34.012</v>
       </c>
       <c r="K26">
-        <v>0.88</v>
+        <v>2.984</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,81 +2884,81 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1027.7170000000001</v>
+        <v>436.66</v>
       </c>
       <c r="O26">
-        <v>12744.683000000001</v>
+        <v>505.762</v>
       </c>
       <c r="P26">
-        <v>11809.148999999999</v>
+        <v>121.41800000000001</v>
       </c>
       <c r="Q26">
-        <v>-292.31799999999998</v>
+        <v>-11.429</v>
       </c>
       <c r="R26">
-        <v>42704</v>
+        <v>39051</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>3015.384</v>
+        <v>1198.9059999999999</v>
       </c>
       <c r="U26">
-        <v>23.713000000000001</v>
+        <v>12.352</v>
       </c>
       <c r="V26">
-        <v>-303.03699999999998</v>
+        <v>50.814</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>86.774000000000001</v>
+        <v>-1.8460000000000001</v>
       </c>
       <c r="Y26">
-        <v>466.96499999999997</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>-0.54800000000000004</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>136.64500000000001</v>
+        <v>45.418999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42794</v>
+        <v>39141</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>152.60300000000001</v>
+        <v>42.137999999999998</v>
       </c>
       <c r="D27">
-        <v>4244.96</v>
+        <v>1899.1279999999999</v>
       </c>
       <c r="E27">
-        <v>152.38800000000001</v>
+        <v>71.412999999999997</v>
       </c>
       <c r="F27">
-        <v>645.05799999999999</v>
+        <v>272.57799999999997</v>
       </c>
       <c r="G27">
-        <v>2873.63</v>
+        <v>1150.5160000000001</v>
       </c>
       <c r="H27">
-        <v>16279.356</v>
+        <v>1885.5730000000001</v>
       </c>
       <c r="I27">
-        <v>494.98899999999998</v>
+        <v>254.89500000000001</v>
       </c>
       <c r="J27">
-        <v>11339.793</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>6.2E-2</v>
+        <v>3.29</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2847,164 +2967,164 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>1105.787</v>
+        <v>512.02200000000005</v>
       </c>
       <c r="O27">
-        <v>13170.776</v>
+        <v>638.19799999999998</v>
       </c>
       <c r="P27">
-        <v>12169.704</v>
+        <v>185.477</v>
       </c>
       <c r="Q27">
-        <v>14.702999999999999</v>
+        <v>7.1029999999999998</v>
       </c>
       <c r="R27">
-        <v>42794</v>
+        <v>39141</v>
       </c>
       <c r="S27">
-        <v>24344</v>
+        <v>13736</v>
       </c>
       <c r="T27">
-        <v>3108.58</v>
+        <v>1247.375</v>
       </c>
       <c r="U27">
-        <v>38.415999999999997</v>
+        <v>19.454999999999998</v>
       </c>
       <c r="V27">
-        <v>-119.265</v>
+        <v>-0.76500000000000001</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>261.32900000000001</v>
+        <v>83.811999999999998</v>
       </c>
       <c r="Y27">
-        <v>486.64499999999998</v>
+        <v>33.744</v>
       </c>
       <c r="Z27">
-        <v>0.61199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>152.60300000000001</v>
+        <v>42.137999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42886</v>
+        <v>39233</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>211.702</v>
+        <v>65.355000000000004</v>
       </c>
       <c r="D28">
-        <v>4749.0339999999997</v>
+        <v>2163.8339999999998</v>
       </c>
       <c r="E28">
-        <v>104.745</v>
+        <v>68.367000000000004</v>
       </c>
       <c r="F28">
-        <v>758.30100000000004</v>
+        <v>321.28899999999999</v>
       </c>
       <c r="G28">
-        <v>2734.5439999999999</v>
+        <v>1188.327</v>
       </c>
       <c r="H28">
-        <v>16475.688999999998</v>
+        <v>1977.15</v>
       </c>
       <c r="I28">
-        <v>510.57400000000001</v>
+        <v>249.327</v>
       </c>
       <c r="J28">
-        <v>11441.476000000001</v>
+        <v>33.469000000000001</v>
       </c>
       <c r="K28">
-        <v>0.69299999999999995</v>
+        <v>3.68</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>-3068.4029999999998</v>
+        <v>-209.054</v>
       </c>
       <c r="N28">
-        <v>1166.67</v>
+        <v>502.94200000000001</v>
       </c>
       <c r="O28">
-        <v>13323.561</v>
+        <v>648.78099999999995</v>
       </c>
       <c r="P28">
-        <v>12275.166999999999</v>
+        <v>168.41300000000001</v>
       </c>
       <c r="Q28">
-        <v>31.791</v>
+        <v>2.5739999999999998</v>
       </c>
       <c r="R28">
-        <v>42886</v>
+        <v>39233</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>3152.1280000000002</v>
+        <v>1328.3689999999999</v>
       </c>
       <c r="U28">
-        <v>60.08</v>
+        <v>22.029</v>
       </c>
       <c r="V28">
-        <v>191.49299999999999</v>
+        <v>75.399000000000001</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-79.468999999999994</v>
+        <v>-11.946</v>
       </c>
       <c r="Y28">
-        <v>484.39400000000001</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>-0.81699999999999995</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>211.702</v>
+        <v>65.355000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>42978</v>
+        <v>39325</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>181.42400000000001</v>
+        <v>64.995000000000005</v>
       </c>
       <c r="D29">
-        <v>4600.24</v>
+        <v>2139.5300000000002</v>
       </c>
       <c r="E29">
-        <v>99.733000000000004</v>
+        <v>56.164999999999999</v>
       </c>
       <c r="F29">
-        <v>711.94100000000003</v>
+        <v>321.60599999999999</v>
       </c>
       <c r="G29">
-        <v>2803.335</v>
+        <v>1132.7159999999999</v>
       </c>
       <c r="H29">
-        <v>16875.733</v>
+        <v>1977.79</v>
       </c>
       <c r="I29">
-        <v>568.03599999999994</v>
+        <v>248.762</v>
       </c>
       <c r="J29">
-        <v>11740.804</v>
+        <v>27.361000000000001</v>
       </c>
       <c r="K29">
-        <v>0.27100000000000002</v>
+        <v>2.6720000000000002</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1201.557</v>
+        <v>423.61399999999998</v>
       </c>
       <c r="O29">
-        <v>13674.746999999999</v>
+        <v>566.95699999999999</v>
       </c>
       <c r="P29">
-        <v>12600.694</v>
+        <v>116.298</v>
       </c>
       <c r="Q29">
-        <v>-15.374000000000001</v>
+        <v>-14.44</v>
       </c>
       <c r="R29">
-        <v>42978</v>
+        <v>39325</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>3200.9859999999999</v>
+        <v>1410.8330000000001</v>
       </c>
       <c r="U29">
-        <v>25.765000000000001</v>
+        <v>7.5890000000000004</v>
       </c>
       <c r="V29">
-        <v>-110.396</v>
+        <v>97.626000000000005</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>170.77699999999999</v>
+        <v>-37.125</v>
       </c>
       <c r="Y29">
-        <v>493.2</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>-0.157</v>
+        <v>-5</v>
       </c>
       <c r="AA29">
-        <v>181.42400000000001</v>
+        <v>64.995000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43069</v>
+        <v>39416</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>148.84</v>
+        <v>29.846</v>
       </c>
       <c r="D30">
-        <v>4324.1170000000002</v>
+        <v>1903.9</v>
       </c>
       <c r="E30">
-        <v>95.840999999999994</v>
+        <v>52.768999999999998</v>
       </c>
       <c r="F30">
-        <v>641.99800000000005</v>
+        <v>259.23</v>
       </c>
       <c r="G30">
-        <v>3004.9229999999998</v>
+        <v>1212.2370000000001</v>
       </c>
       <c r="H30">
-        <v>17303.414000000001</v>
+        <v>2109.3919999999998</v>
       </c>
       <c r="I30">
-        <v>519.98400000000004</v>
+        <v>265.93299999999999</v>
       </c>
       <c r="J30">
-        <v>12160.369000000001</v>
+        <v>27.28</v>
       </c>
       <c r="K30">
-        <v>0.59299999999999997</v>
+        <v>3.137</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,81 +3216,81 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1111.6780000000001</v>
+        <v>510.08800000000002</v>
       </c>
       <c r="O30">
-        <v>14002.687</v>
+        <v>655.06299999999999</v>
       </c>
       <c r="P30">
-        <v>13009.634</v>
+        <v>185.958</v>
       </c>
       <c r="Q30">
-        <v>-14.653</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="R30">
-        <v>43069</v>
+        <v>39416</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>3300.7269999999999</v>
+        <v>1454.329</v>
       </c>
       <c r="U30">
-        <v>26.286999999999999</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="V30">
-        <v>-274.21899999999999</v>
+        <v>-14.108000000000001</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>337.18700000000001</v>
+        <v>75.061999999999998</v>
       </c>
       <c r="Y30">
-        <v>490.96800000000002</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>-5.1719999999999997</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>148.84</v>
+        <v>29.846</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43159</v>
+        <v>39507</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>122.146</v>
+        <v>21.829000000000001</v>
       </c>
       <c r="D31">
-        <v>4303.4179999999997</v>
+        <v>2063.0070000000001</v>
       </c>
       <c r="E31">
-        <v>133.321</v>
+        <v>73.227999999999994</v>
       </c>
       <c r="F31">
-        <v>637.80100000000004</v>
+        <v>256.16500000000002</v>
       </c>
       <c r="G31">
-        <v>3061.444</v>
+        <v>1356.925</v>
       </c>
       <c r="H31">
-        <v>17486.272000000001</v>
+        <v>2333.1610000000001</v>
       </c>
       <c r="I31">
-        <v>529.73299999999995</v>
+        <v>306.01299999999998</v>
       </c>
       <c r="J31">
-        <v>12262.442999999999</v>
+        <v>200</v>
       </c>
       <c r="K31">
-        <v>0.127</v>
+        <v>21.016999999999999</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3179,164 +3299,164 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>1174.058</v>
+        <v>490.024</v>
       </c>
       <c r="O31">
-        <v>14169.423000000001</v>
+        <v>844.23500000000001</v>
       </c>
       <c r="P31">
-        <v>13118.366</v>
+        <v>327.83100000000002</v>
       </c>
       <c r="Q31">
-        <v>29.268999999999998</v>
+        <v>4.585</v>
       </c>
       <c r="R31">
-        <v>43159</v>
+        <v>39507</v>
       </c>
       <c r="S31">
-        <v>25110</v>
+        <v>15637</v>
       </c>
       <c r="T31">
-        <v>3316.8490000000002</v>
+        <v>1488.9259999999999</v>
       </c>
       <c r="U31">
-        <v>44.524999999999999</v>
+        <v>12.965</v>
       </c>
       <c r="V31">
-        <v>112.572</v>
+        <v>-79.397000000000006</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-15.048999999999999</v>
+        <v>145.01599999999999</v>
       </c>
       <c r="Y31">
-        <v>490.36900000000003</v>
+        <v>27.152999999999999</v>
       </c>
       <c r="Z31">
-        <v>1.002</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>122.146</v>
+        <v>21.829000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43251</v>
+        <v>39599</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>238.65600000000001</v>
+        <v>29.558</v>
       </c>
       <c r="D32">
-        <v>5024.8919999999998</v>
+        <v>2230.0630000000001</v>
       </c>
       <c r="E32">
-        <v>101.351</v>
+        <v>75.393000000000001</v>
       </c>
       <c r="F32">
-        <v>776.93299999999999</v>
+        <v>292.53300000000002</v>
       </c>
       <c r="G32">
-        <v>2957.4940000000001</v>
+        <v>1323.1869999999999</v>
       </c>
       <c r="H32">
-        <v>17756.167000000001</v>
+        <v>2376.0729999999999</v>
       </c>
       <c r="I32">
-        <v>586.33699999999999</v>
+        <v>274.56</v>
       </c>
       <c r="J32">
-        <v>12363.736000000001</v>
+        <v>200.017</v>
       </c>
       <c r="K32">
-        <v>0.36499999999999999</v>
+        <v>8.4030000000000005</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>-12.614000000000001</v>
       </c>
       <c r="M32">
-        <v>-3360.7890000000002</v>
+        <v>-193.00899999999999</v>
       </c>
       <c r="N32">
-        <v>1288.202</v>
+        <v>478.09100000000001</v>
       </c>
       <c r="O32">
-        <v>14372.406000000001</v>
+        <v>839.23199999999997</v>
       </c>
       <c r="P32">
-        <v>13254.393</v>
+        <v>315.40800000000002</v>
       </c>
       <c r="Q32">
-        <v>66.337999999999994</v>
+        <v>-1.0740000000000001</v>
       </c>
       <c r="R32">
-        <v>43251</v>
+        <v>39599</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>3383.761</v>
+        <v>1536.8409999999999</v>
       </c>
       <c r="U32">
-        <v>76.347999999999999</v>
+        <v>11.891</v>
       </c>
       <c r="V32">
-        <v>230.84899999999999</v>
+        <v>79.355999999999995</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-80.093999999999994</v>
+        <v>-4.0599999999999996</v>
       </c>
       <c r="Y32">
-        <v>497.416</v>
+        <v>27</v>
       </c>
       <c r="Z32">
-        <v>-5.0170000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>238.65600000000001</v>
+        <v>29.558</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43343</v>
+        <v>39691</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>220.89</v>
+        <v>14.006</v>
       </c>
       <c r="D33">
-        <v>5008.2349999999997</v>
+        <v>1860.654</v>
       </c>
       <c r="E33">
-        <v>104.883</v>
+        <v>59.149000000000001</v>
       </c>
       <c r="F33">
-        <v>760.303</v>
+        <v>248.77199999999999</v>
       </c>
       <c r="G33">
-        <v>3022.087</v>
+        <v>1163.3109999999999</v>
       </c>
       <c r="H33">
-        <v>18176.505000000001</v>
+        <v>2264.152</v>
       </c>
       <c r="I33">
-        <v>605.53499999999997</v>
+        <v>228.578</v>
       </c>
       <c r="J33">
-        <v>12672.154</v>
+        <v>149.964</v>
       </c>
       <c r="K33">
-        <v>3.2959999999999998</v>
+        <v>12.6</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1283.461</v>
+        <v>392.29300000000001</v>
       </c>
       <c r="O33">
-        <v>14694.387000000001</v>
+        <v>703.20600000000002</v>
       </c>
       <c r="P33">
-        <v>13589.032999999999</v>
+        <v>237.69300000000001</v>
       </c>
       <c r="Q33">
-        <v>-22.056999999999999</v>
+        <v>-0.97399999999999998</v>
       </c>
       <c r="R33">
-        <v>43343</v>
+        <v>39691</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>3482.1179999999999</v>
+        <v>1560.9459999999999</v>
       </c>
       <c r="U33">
-        <v>37.146999999999998</v>
+        <v>10.917</v>
       </c>
       <c r="V33">
-        <v>-119.964</v>
+        <v>139.54499999999999</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>188.43799999999999</v>
+        <v>-76.614999999999995</v>
       </c>
       <c r="Y33">
-        <v>505.16699999999997</v>
+        <v>26.9</v>
       </c>
       <c r="Z33">
-        <v>0.61499999999999999</v>
+        <v>-4.0090000000000003</v>
       </c>
       <c r="AA33">
-        <v>220.89</v>
+        <v>14.006</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43434</v>
+        <v>39782</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>190.31100000000001</v>
+        <v>-21.873999999999999</v>
       </c>
       <c r="D34">
-        <v>4543.6710000000003</v>
+        <v>1478.6320000000001</v>
       </c>
       <c r="E34">
-        <v>111.15600000000001</v>
+        <v>45.816000000000003</v>
       </c>
       <c r="F34">
-        <v>678.96199999999999</v>
+        <v>183.876</v>
       </c>
       <c r="G34">
-        <v>3057.4189999999999</v>
+        <v>1130.2560000000001</v>
       </c>
       <c r="H34">
-        <v>18396.812000000002</v>
+        <v>2218.1819999999998</v>
       </c>
       <c r="I34">
-        <v>558.32399999999996</v>
+        <v>177.14400000000001</v>
       </c>
       <c r="J34">
-        <v>12989.406000000001</v>
+        <v>149.983</v>
       </c>
       <c r="K34">
-        <v>0.436</v>
+        <v>12.073</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,81 +3548,81 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1224.873</v>
+        <v>379.49299999999999</v>
       </c>
       <c r="O34">
-        <v>14961.699000000001</v>
+        <v>654.47900000000004</v>
       </c>
       <c r="P34">
-        <v>13878.993</v>
+        <v>275.65100000000001</v>
       </c>
       <c r="Q34">
-        <v>-29.831</v>
+        <v>127.227</v>
       </c>
       <c r="R34">
-        <v>43434</v>
+        <v>39782</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>3435.1129999999998</v>
+        <v>1563.703</v>
       </c>
       <c r="U34">
-        <v>35.048999999999999</v>
+        <v>138.14400000000001</v>
       </c>
       <c r="V34">
-        <v>3.7450000000000001</v>
+        <v>87.727000000000004</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>38.472999999999999</v>
+        <v>38.844000000000001</v>
       </c>
       <c r="Y34">
-        <v>504.77600000000001</v>
+        <v>26.7</v>
       </c>
       <c r="Z34">
-        <v>3.5999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>190.31100000000001</v>
+        <v>-21.873999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43524</v>
+        <v>39872</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>192.55600000000001</v>
+        <v>37.523000000000003</v>
       </c>
       <c r="D35">
-        <v>4569.2020000000002</v>
+        <v>1494.2170000000001</v>
       </c>
       <c r="E35">
-        <v>139.85</v>
+        <v>75.876000000000005</v>
       </c>
       <c r="F35">
-        <v>703.08299999999997</v>
+        <v>258.27499999999998</v>
       </c>
       <c r="G35">
-        <v>3214.0129999999999</v>
+        <v>1287.752</v>
       </c>
       <c r="H35">
-        <v>18717.866999999998</v>
+        <v>2379.1869999999999</v>
       </c>
       <c r="I35">
-        <v>593.17100000000005</v>
+        <v>237.31200000000001</v>
       </c>
       <c r="J35">
-        <v>13776.534</v>
+        <v>150</v>
       </c>
       <c r="K35">
-        <v>1.129</v>
+        <v>0.878</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3511,164 +3631,164 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1311.509</v>
+        <v>490.77</v>
       </c>
       <c r="O35">
-        <v>15360.839</v>
+        <v>786.12</v>
       </c>
       <c r="P35">
-        <v>14172.884</v>
+        <v>337.04700000000003</v>
       </c>
       <c r="Q35">
-        <v>26.029</v>
+        <v>2.4529999999999998</v>
       </c>
       <c r="R35">
-        <v>43524</v>
+        <v>39872</v>
       </c>
       <c r="S35">
-        <v>25946</v>
+        <v>13035</v>
       </c>
       <c r="T35">
-        <v>3357.0279999999998</v>
+        <v>1593.067</v>
       </c>
       <c r="U35">
-        <v>46.938000000000002</v>
+        <v>140.59700000000001</v>
       </c>
       <c r="V35">
-        <v>48.341000000000001</v>
+        <v>-42.036999999999999</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>39.204000000000001</v>
+        <v>60.218000000000004</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>28.062000000000001</v>
       </c>
       <c r="Z35">
-        <v>-0.20300000000000001</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="AA35">
-        <v>192.55600000000001</v>
+        <v>37.523000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43616</v>
+        <v>39964</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>266.74400000000003</v>
+        <v>28.748000000000001</v>
       </c>
       <c r="D36">
-        <v>5632.518</v>
+        <v>1861.2</v>
       </c>
       <c r="E36">
-        <v>133.87899999999999</v>
+        <v>74.691999999999993</v>
       </c>
       <c r="F36">
-        <v>858.34199999999998</v>
+        <v>254.601</v>
       </c>
       <c r="G36">
-        <v>3283.7449999999999</v>
+        <v>1453.5039999999999</v>
       </c>
       <c r="H36">
-        <v>19714.475999999999</v>
+        <v>2550.6759999999999</v>
       </c>
       <c r="I36">
-        <v>656.90200000000004</v>
+        <v>252.702</v>
       </c>
       <c r="J36">
-        <v>14027.714</v>
+        <v>149.989</v>
       </c>
       <c r="K36">
-        <v>0.67100000000000004</v>
+        <v>1.1950000000000001</v>
       </c>
       <c r="L36">
-        <v>-0.45800000000000002</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>-4302.7330000000002</v>
+        <v>-175.792</v>
       </c>
       <c r="N36">
-        <v>1485.402</v>
+        <v>640.21500000000003</v>
       </c>
       <c r="O36">
-        <v>16261.721</v>
+        <v>924.21</v>
       </c>
       <c r="P36">
-        <v>15023.74</v>
+        <v>417.572</v>
       </c>
       <c r="Q36">
-        <v>37.972999999999999</v>
+        <v>-7.0170000000000003</v>
       </c>
       <c r="R36">
-        <v>43616</v>
+        <v>39964</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>3452.7550000000001</v>
+        <v>1626.4659999999999</v>
       </c>
       <c r="U36">
-        <v>42.197000000000003</v>
+        <v>133.58000000000001</v>
       </c>
       <c r="V36">
-        <v>43.201000000000001</v>
+        <v>-79.417000000000002</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>80.882999999999996</v>
+        <v>77.826999999999998</v>
       </c>
       <c r="Y36">
-        <v>530.505</v>
+        <v>27.9</v>
       </c>
       <c r="Z36">
-        <v>-7.1429999999999998</v>
+        <v>0.185</v>
       </c>
       <c r="AA36">
-        <v>266.74400000000003</v>
+        <v>28.748000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43708</v>
+        <v>40056</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>233.59899999999999</v>
+        <v>102.971</v>
       </c>
       <c r="D37">
-        <v>5476.8509999999997</v>
+        <v>2103.3710000000001</v>
       </c>
       <c r="E37">
-        <v>141.09100000000001</v>
+        <v>79.11</v>
       </c>
       <c r="F37">
-        <v>807.58399999999995</v>
+        <v>386.67899999999997</v>
       </c>
       <c r="G37">
-        <v>3384.9389999999999</v>
+        <v>1521.5820000000001</v>
       </c>
       <c r="H37">
-        <v>20140.254000000001</v>
+        <v>2587.3000000000002</v>
       </c>
       <c r="I37">
-        <v>628.50699999999995</v>
+        <v>224.83500000000001</v>
       </c>
       <c r="J37">
-        <v>14384.129000000001</v>
+        <v>150.01599999999999</v>
       </c>
       <c r="K37">
-        <v>0.91500000000000004</v>
+        <v>1.9370000000000001</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1396.704</v>
+        <v>555.73500000000001</v>
       </c>
       <c r="O37">
-        <v>16528.697</v>
+        <v>843.07299999999998</v>
       </c>
       <c r="P37">
-        <v>15373.745000000001</v>
+        <v>379.50799999999998</v>
       </c>
       <c r="Q37">
-        <v>4.258</v>
+        <v>-11.233000000000001</v>
       </c>
       <c r="R37">
-        <v>43708</v>
+        <v>40056</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>3611.5569999999998</v>
+        <v>1744.2270000000001</v>
       </c>
       <c r="U37">
-        <v>40.737000000000002</v>
+        <v>122.34699999999999</v>
       </c>
       <c r="V37">
-        <v>-168.65700000000001</v>
+        <v>28.128</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>265.67200000000003</v>
+        <v>-30.960999999999999</v>
       </c>
       <c r="Y37">
-        <v>520.63900000000001</v>
+        <v>27.7</v>
       </c>
       <c r="Z37">
-        <v>-0.38100000000000001</v>
+        <v>-0.18099999999999999</v>
       </c>
       <c r="AA37">
-        <v>233.59899999999999</v>
+        <v>102.971</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43799</v>
+        <v>40147</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>173.15600000000001</v>
+        <v>74.588999999999999</v>
       </c>
       <c r="D38">
-        <v>5068.9279999999999</v>
+        <v>1754.1769999999999</v>
       </c>
       <c r="E38">
-        <v>142.73699999999999</v>
+        <v>68.313999999999993</v>
       </c>
       <c r="F38">
-        <v>727.68</v>
+        <v>308.66899999999998</v>
       </c>
       <c r="G38">
-        <v>3450.2440000000001</v>
+        <v>1392.3409999999999</v>
       </c>
       <c r="H38">
-        <v>20487.23</v>
+        <v>2410.2669999999998</v>
       </c>
       <c r="I38">
-        <v>641.43399999999997</v>
+        <v>182.69300000000001</v>
       </c>
       <c r="J38">
-        <v>14604.254000000001</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="K38">
-        <v>0.42099999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,81 +3880,81 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1421.0409999999999</v>
+        <v>427.64</v>
       </c>
       <c r="O38">
-        <v>16789.177</v>
+        <v>564.29300000000001</v>
       </c>
       <c r="P38">
-        <v>15572.254000000001</v>
+        <v>155.40100000000001</v>
       </c>
       <c r="Q38">
-        <v>-7.5789999999999997</v>
+        <v>-107.13500000000001</v>
       </c>
       <c r="R38">
-        <v>43799</v>
+        <v>40147</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>3698.0529999999999</v>
+        <v>1845.9739999999999</v>
       </c>
       <c r="U38">
-        <v>56.582999999999998</v>
+        <v>15.212</v>
       </c>
       <c r="V38">
-        <v>7.55</v>
+        <v>107.76600000000001</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>62.59</v>
+        <v>-210.886</v>
       </c>
       <c r="Y38">
-        <v>525.85299999999995</v>
+        <v>27.5</v>
       </c>
       <c r="Z38">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>173.15600000000001</v>
+        <v>74.588999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43890</v>
+        <v>40237</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>214.934</v>
+        <v>75.36</v>
       </c>
       <c r="D39">
-        <v>5245.79</v>
+        <v>1793.345</v>
       </c>
       <c r="E39">
-        <v>191.09</v>
+        <v>99.433999999999997</v>
       </c>
       <c r="F39">
-        <v>784.76400000000001</v>
+        <v>324.13799999999998</v>
       </c>
       <c r="G39">
-        <v>3663.6869999999999</v>
+        <v>1556.412</v>
       </c>
       <c r="H39">
-        <v>21082.182000000001</v>
+        <v>2556.1909999999998</v>
       </c>
       <c r="I39">
-        <v>737.14400000000001</v>
+        <v>253.267</v>
       </c>
       <c r="J39">
-        <v>14944.056</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>0.04</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3843,164 +3963,164 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1534.7070000000001</v>
+        <v>477.351</v>
       </c>
       <c r="O39">
-        <v>17313.307000000001</v>
+        <v>622.60900000000004</v>
       </c>
       <c r="P39">
-        <v>15933.556</v>
+        <v>150.571</v>
       </c>
       <c r="Q39">
-        <v>26.361000000000001</v>
+        <v>3.0659999999999998</v>
       </c>
       <c r="R39">
-        <v>43890</v>
+        <v>40237</v>
       </c>
       <c r="S39">
-        <v>27050</v>
+        <v>13439</v>
       </c>
       <c r="T39">
-        <v>3768.875</v>
+        <v>1933.5820000000001</v>
       </c>
       <c r="U39">
-        <v>58.210999999999999</v>
+        <v>18.277999999999999</v>
       </c>
       <c r="V39">
-        <v>-118.7</v>
+        <v>-6.1870000000000003</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>277.83800000000002</v>
+        <v>12.731999999999999</v>
       </c>
       <c r="Y39">
-        <v>519.99800000000005</v>
+        <v>27.370999999999999</v>
       </c>
       <c r="Z39">
-        <v>-50.058</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>214.934</v>
+        <v>75.36</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>43982</v>
+        <v>40329</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>4.9779999999999998</v>
+        <v>101.119</v>
       </c>
       <c r="D40">
-        <v>3511.2820000000002</v>
+        <v>2361.712</v>
       </c>
       <c r="E40">
-        <v>145.018</v>
+        <v>84.897999999999996</v>
       </c>
       <c r="F40">
-        <v>405.13299999999998</v>
+        <v>391.04300000000001</v>
       </c>
       <c r="G40">
-        <v>3283.7310000000002</v>
+        <v>1155.758</v>
       </c>
       <c r="H40">
-        <v>19972.531999999999</v>
+        <v>6371.95</v>
       </c>
       <c r="I40">
-        <v>390.16</v>
+        <v>236.94900000000001</v>
       </c>
       <c r="J40">
-        <v>13881.102000000001</v>
+        <v>3699.864</v>
       </c>
       <c r="K40">
-        <v>8.5999999999999993E-2</v>
+        <v>0.153</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>-0.73</v>
       </c>
       <c r="M40">
-        <v>-3484.239</v>
+        <v>-970.73199999999997</v>
       </c>
       <c r="N40">
-        <v>1151.0060000000001</v>
+        <v>568.44600000000003</v>
       </c>
       <c r="O40">
-        <v>16394.222000000002</v>
+        <v>4413.6629999999996</v>
       </c>
       <c r="P40">
-        <v>15410.687</v>
+        <v>3919.0320000000002</v>
       </c>
       <c r="Q40">
-        <v>604.75</v>
+        <v>-4.57</v>
       </c>
       <c r="R40">
-        <v>43982</v>
+        <v>40329</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>3578.31</v>
+        <v>1958.287</v>
       </c>
       <c r="U40">
-        <v>658.02200000000005</v>
+        <v>13.708</v>
       </c>
       <c r="V40">
-        <v>1249.559</v>
+        <v>55.607999999999997</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>-579.73699999999997</v>
+        <v>-64.519000000000005</v>
       </c>
       <c r="Y40">
-        <v>1053.377</v>
+        <v>27.18</v>
       </c>
       <c r="Z40">
-        <v>-2.2010000000000001</v>
+        <v>1E-3</v>
       </c>
       <c r="AA40">
-        <v>4.9779999999999998</v>
+        <v>101.119</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44074</v>
+        <v>40421</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>296.69600000000003</v>
+        <v>107.88500000000001</v>
       </c>
       <c r="D41">
-        <v>5652.2659999999996</v>
+        <v>2449.38</v>
       </c>
       <c r="E41">
-        <v>203.155</v>
+        <v>65.981999999999999</v>
       </c>
       <c r="F41">
-        <v>899.33799999999997</v>
+        <v>401.72199999999998</v>
       </c>
       <c r="G41">
-        <v>4327.8590000000004</v>
+        <v>1234.5719999999999</v>
       </c>
       <c r="H41">
-        <v>21246.306</v>
+        <v>6577.1790000000001</v>
       </c>
       <c r="I41">
-        <v>683.71500000000003</v>
+        <v>231.71899999999999</v>
       </c>
       <c r="J41">
-        <v>14264.602999999999</v>
+        <v>3867.0450000000001</v>
       </c>
       <c r="K41">
-        <v>0.83799999999999997</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1598.942</v>
+        <v>485.83800000000002</v>
       </c>
       <c r="O41">
-        <v>17263.745999999999</v>
+        <v>4508.1760000000004</v>
       </c>
       <c r="P41">
-        <v>15831.387000000001</v>
+        <v>4042.268</v>
       </c>
       <c r="Q41">
-        <v>106.64100000000001</v>
+        <v>41.454999999999998</v>
       </c>
       <c r="R41">
-        <v>44074</v>
+        <v>40421</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>3982.56</v>
+        <v>2069.0030000000002</v>
       </c>
       <c r="U41">
-        <v>711.56100000000004</v>
+        <v>55.162999999999997</v>
       </c>
       <c r="V41">
-        <v>-359.78300000000002</v>
+        <v>-65.073999999999998</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>493.709</v>
+        <v>131.71899999999999</v>
       </c>
       <c r="Y41">
-        <v>1060.479</v>
+        <v>28.747</v>
       </c>
       <c r="Z41">
-        <v>1.016</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>296.69600000000003</v>
+        <v>107.88500000000001</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44165</v>
+        <v>40512</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>82.364000000000004</v>
+      </c>
+      <c r="D42">
+        <v>2225.9290000000001</v>
+      </c>
+      <c r="E42">
+        <v>66.045000000000002</v>
+      </c>
+      <c r="F42">
+        <v>353.65499999999997</v>
+      </c>
+      <c r="G42">
+        <v>1337.5</v>
+      </c>
+      <c r="H42">
+        <v>6695.3919999999998</v>
+      </c>
+      <c r="I42">
+        <v>218.03700000000001</v>
+      </c>
+      <c r="J42">
+        <v>3886.8710000000001</v>
+      </c>
+      <c r="K42">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>469.25400000000002</v>
+      </c>
+      <c r="O42">
+        <v>4511.9070000000002</v>
+      </c>
+      <c r="P42">
+        <v>4055.6529999999998</v>
+      </c>
+      <c r="Q42">
+        <v>19.228000000000002</v>
+      </c>
+      <c r="R42">
+        <v>40512</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>2183.4850000000001</v>
+      </c>
+      <c r="U42">
+        <v>74.391000000000005</v>
+      </c>
+      <c r="V42">
+        <v>-13.022</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>48.994</v>
+      </c>
+      <c r="Y42">
+        <v>28.524999999999999</v>
+      </c>
+      <c r="Z42">
+        <v>4</v>
+      </c>
+      <c r="AA42">
+        <v>82.364000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40602</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>86.126999999999995</v>
+      </c>
+      <c r="D43">
+        <v>2357.6329999999998</v>
+      </c>
+      <c r="E43">
+        <v>119.59699999999999</v>
+      </c>
+      <c r="F43">
+        <v>374.791</v>
+      </c>
+      <c r="G43">
+        <v>1410.098</v>
+      </c>
+      <c r="H43">
+        <v>7125.549</v>
+      </c>
+      <c r="I43">
+        <v>265.928</v>
+      </c>
+      <c r="J43">
+        <v>3881.1419999999998</v>
+      </c>
+      <c r="K43">
+        <v>1.002</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>522.67100000000005</v>
+      </c>
+      <c r="O43">
+        <v>4886.3</v>
+      </c>
+      <c r="P43">
+        <v>4398.732</v>
+      </c>
+      <c r="Q43">
+        <v>-33.270000000000003</v>
+      </c>
+      <c r="R43">
+        <v>40602</v>
+      </c>
+      <c r="S43">
+        <v>15565</v>
+      </c>
+      <c r="T43">
+        <v>2239.2489999999998</v>
+      </c>
+      <c r="U43">
+        <v>41.121000000000002</v>
+      </c>
+      <c r="V43">
+        <v>15.73</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-14.381</v>
+      </c>
+      <c r="Y43">
+        <v>367.61700000000002</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>86.126999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40694</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>125.5</v>
+      </c>
+      <c r="D44">
+        <v>2787.317</v>
+      </c>
+      <c r="E44">
+        <v>85.058000000000007</v>
+      </c>
+      <c r="F44">
+        <v>452.75599999999997</v>
+      </c>
+      <c r="G44">
+        <v>1540.953</v>
+      </c>
+      <c r="H44">
+        <v>7160.0309999999999</v>
+      </c>
+      <c r="I44">
+        <v>281.245</v>
+      </c>
+      <c r="J44">
+        <v>4001.1219999999998</v>
+      </c>
+      <c r="K44">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>-1108.596</v>
+      </c>
+      <c r="N44">
+        <v>576.82899999999995</v>
+      </c>
+      <c r="O44">
+        <v>4729.6049999999996</v>
+      </c>
+      <c r="P44">
+        <v>4178.9989999999998</v>
+      </c>
+      <c r="Q44">
+        <v>114.88200000000001</v>
+      </c>
+      <c r="R44">
+        <v>40694</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>2430.4259999999999</v>
+      </c>
+      <c r="U44">
+        <v>156.00299999999999</v>
+      </c>
+      <c r="V44">
+        <v>24.904</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>129.45699999999999</v>
+      </c>
+      <c r="Y44">
+        <v>28.125</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>125.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40786</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>111.154</v>
+      </c>
+      <c r="D45">
+        <v>2699.6190000000001</v>
+      </c>
+      <c r="E45">
+        <v>64.849000000000004</v>
+      </c>
+      <c r="F45">
+        <v>418.101</v>
+      </c>
+      <c r="G45">
+        <v>1495.819</v>
+      </c>
+      <c r="H45">
+        <v>7358.9750000000004</v>
+      </c>
+      <c r="I45">
+        <v>226.89599999999999</v>
+      </c>
+      <c r="J45">
+        <v>4169.0370000000003</v>
+      </c>
+      <c r="K45">
+        <v>1.333</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>490.29</v>
+      </c>
+      <c r="O45">
+        <v>4806.7529999999997</v>
+      </c>
+      <c r="P45">
+        <v>4345.2579999999998</v>
+      </c>
+      <c r="Q45">
+        <v>25.91</v>
+      </c>
+      <c r="R45">
+        <v>40786</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>2552.2220000000002</v>
+      </c>
+      <c r="U45">
+        <v>181.91300000000001</v>
+      </c>
+      <c r="V45">
+        <v>-100.828</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>161.39599999999999</v>
+      </c>
+      <c r="Y45">
+        <v>27.931000000000001</v>
+      </c>
+      <c r="Z45">
+        <v>-2.4550000000000001</v>
+      </c>
+      <c r="AA45">
+        <v>111.154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40877</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>82.11</v>
+      </c>
+      <c r="D46">
+        <v>2374.8139999999999</v>
+      </c>
+      <c r="E46">
+        <v>54.521999999999998</v>
+      </c>
+      <c r="F46">
+        <v>365.84399999999999</v>
+      </c>
+      <c r="G46">
+        <v>1648.3989999999999</v>
+      </c>
+      <c r="H46">
+        <v>7633.4009999999998</v>
+      </c>
+      <c r="I46">
+        <v>246.393</v>
+      </c>
+      <c r="J46">
+        <v>4318.0460000000003</v>
+      </c>
+      <c r="K46">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>531.31600000000003</v>
+      </c>
+      <c r="O46">
+        <v>4996.549</v>
+      </c>
+      <c r="P46">
+        <v>4494.5389999999998</v>
+      </c>
+      <c r="Q46">
+        <v>201.49799999999999</v>
+      </c>
+      <c r="R46">
+        <v>40877</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>2636.8519999999999</v>
+      </c>
+      <c r="U46">
+        <v>383.411</v>
+      </c>
+      <c r="V46">
+        <v>82.257000000000005</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>163.63900000000001</v>
+      </c>
+      <c r="Y46">
+        <v>27.713000000000001</v>
+      </c>
+      <c r="Z46">
+        <v>0.255</v>
+      </c>
+      <c r="AA46">
+        <v>82.11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40968</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>95.031000000000006</v>
+      </c>
+      <c r="D47">
+        <v>2590.549</v>
+      </c>
+      <c r="E47">
+        <v>86.433999999999997</v>
+      </c>
+      <c r="F47">
+        <v>404.245</v>
+      </c>
+      <c r="G47">
+        <v>1853.4480000000001</v>
+      </c>
+      <c r="H47">
+        <v>8331.5429999999997</v>
+      </c>
+      <c r="I47">
+        <v>322.84899999999999</v>
+      </c>
+      <c r="J47">
+        <v>4509.7520000000004</v>
+      </c>
+      <c r="K47">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>646.31299999999999</v>
+      </c>
+      <c r="O47">
+        <v>5658.4309999999996</v>
+      </c>
+      <c r="P47">
+        <v>5054.6840000000002</v>
+      </c>
+      <c r="Q47">
+        <v>59.247</v>
+      </c>
+      <c r="R47">
+        <v>40968</v>
+      </c>
+      <c r="S47">
+        <v>16460</v>
+      </c>
+      <c r="T47">
+        <v>2673.1120000000001</v>
+      </c>
+      <c r="U47">
+        <v>442.65800000000002</v>
+      </c>
+      <c r="V47">
+        <v>-68.497</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>228.61099999999999</v>
+      </c>
+      <c r="Y47">
+        <v>353.56599999999997</v>
+      </c>
+      <c r="Z47">
+        <v>-0.38600000000000001</v>
+      </c>
+      <c r="AA47">
+        <v>95.031000000000006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41060</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>120.746</v>
+      </c>
+      <c r="D48">
+        <v>2894.72</v>
+      </c>
+      <c r="E48">
+        <v>65.704999999999998</v>
+      </c>
+      <c r="F48">
+        <v>457.09399999999999</v>
+      </c>
+      <c r="G48">
+        <v>1931.0070000000001</v>
+      </c>
+      <c r="H48">
+        <v>8598.1630000000005</v>
+      </c>
+      <c r="I48">
+        <v>293.92399999999998</v>
+      </c>
+      <c r="J48">
+        <v>4672.9210000000003</v>
+      </c>
+      <c r="K48">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="L48">
+        <v>-0.152</v>
+      </c>
+      <c r="M48">
+        <v>-560.19600000000003</v>
+      </c>
+      <c r="N48">
+        <v>618.51599999999996</v>
+      </c>
+      <c r="O48">
+        <v>5777.8149999999996</v>
+      </c>
+      <c r="P48">
+        <v>5190.3580000000002</v>
+      </c>
+      <c r="Q48">
+        <v>13.755000000000001</v>
+      </c>
+      <c r="R48">
+        <v>41060</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>2820.348</v>
+      </c>
+      <c r="U48">
+        <v>456.41300000000001</v>
+      </c>
+      <c r="V48">
+        <v>-115.52</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>149.69399999999999</v>
+      </c>
+      <c r="Y48">
+        <v>349.64800000000002</v>
+      </c>
+      <c r="Z48">
+        <v>-1.0960000000000001</v>
+      </c>
+      <c r="AA48">
+        <v>120.746</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41152</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>111.636</v>
+      </c>
+      <c r="D49">
+        <v>2881.5039999999999</v>
+      </c>
+      <c r="E49">
+        <v>70.426000000000002</v>
+      </c>
+      <c r="F49">
+        <v>443.66899999999998</v>
+      </c>
+      <c r="G49">
+        <v>1961.548</v>
+      </c>
+      <c r="H49">
+        <v>8871.44</v>
+      </c>
+      <c r="I49">
+        <v>216.822</v>
+      </c>
+      <c r="J49">
+        <v>4909.7020000000002</v>
+      </c>
+      <c r="K49">
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>525.83900000000006</v>
+      </c>
+      <c r="O49">
+        <v>5921.8530000000001</v>
+      </c>
+      <c r="P49">
+        <v>5447.6229999999996</v>
+      </c>
+      <c r="Q49">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="R49">
+        <v>41152</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>2949.587</v>
+      </c>
+      <c r="U49">
+        <v>458.56700000000001</v>
+      </c>
+      <c r="V49">
+        <v>-170.41200000000001</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>254.654</v>
+      </c>
+      <c r="Y49">
+        <v>345.62799999999999</v>
+      </c>
+      <c r="Z49">
+        <v>0.187</v>
+      </c>
+      <c r="AA49">
+        <v>111.636</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41243</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>94.680999999999997</v>
+      </c>
+      <c r="D50">
+        <v>2727.5459999999998</v>
+      </c>
+      <c r="E50">
+        <v>62.66</v>
+      </c>
+      <c r="F50">
+        <v>417.673</v>
+      </c>
+      <c r="G50">
+        <v>2085.364</v>
+      </c>
+      <c r="H50">
+        <v>9297.6830000000009</v>
+      </c>
+      <c r="I50">
+        <v>271.29500000000002</v>
+      </c>
+      <c r="J50">
+        <v>5211.0640000000003</v>
+      </c>
+      <c r="K50">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>575.69200000000001</v>
+      </c>
+      <c r="O50">
+        <v>6274.0140000000001</v>
+      </c>
+      <c r="P50">
+        <v>5739.99</v>
+      </c>
+      <c r="Q50">
+        <v>-13.457000000000001</v>
+      </c>
+      <c r="R50">
+        <v>41243</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>3023.6689999999999</v>
+      </c>
+      <c r="U50">
+        <v>445.11</v>
+      </c>
+      <c r="V50">
+        <v>-213.29599999999999</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>276.54700000000003</v>
+      </c>
+      <c r="Y50">
+        <v>341.42399999999998</v>
+      </c>
+      <c r="Z50">
+        <v>-0.29799999999999999</v>
+      </c>
+      <c r="AA50">
+        <v>94.680999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41333</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>107.221</v>
+      </c>
+      <c r="D51">
+        <v>2954.348</v>
+      </c>
+      <c r="E51">
+        <v>91.960999999999999</v>
+      </c>
+      <c r="F51">
+        <v>445.19299999999998</v>
+      </c>
+      <c r="G51">
+        <v>2310.1309999999999</v>
+      </c>
+      <c r="H51">
+        <v>9888.6020000000008</v>
+      </c>
+      <c r="I51">
+        <v>336.20400000000001</v>
+      </c>
+      <c r="J51">
+        <v>5672.1750000000002</v>
+      </c>
+      <c r="K51">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>684.173</v>
+      </c>
+      <c r="O51">
+        <v>6869.4350000000004</v>
+      </c>
+      <c r="P51">
+        <v>6209.5529999999999</v>
+      </c>
+      <c r="Q51">
+        <v>4.2539999999999996</v>
+      </c>
+      <c r="R51">
+        <v>41333</v>
+      </c>
+      <c r="S51">
+        <v>18111</v>
+      </c>
+      <c r="T51">
+        <v>3019.1669999999999</v>
+      </c>
+      <c r="U51">
+        <v>449.36399999999998</v>
+      </c>
+      <c r="V51">
+        <v>-279.21300000000002</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>359.52600000000001</v>
+      </c>
+      <c r="Y51">
+        <v>337.452</v>
+      </c>
+      <c r="Z51">
+        <v>-0.23100000000000001</v>
+      </c>
+      <c r="AA51">
+        <v>107.221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41425</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>146.65100000000001</v>
+      </c>
+      <c r="D52">
+        <v>3444.5569999999998</v>
+      </c>
+      <c r="E52">
+        <v>70.451999999999998</v>
+      </c>
+      <c r="F52">
+        <v>535.11500000000001</v>
+      </c>
+      <c r="G52">
+        <v>2454.7730000000001</v>
+      </c>
+      <c r="H52">
+        <v>10450.454</v>
+      </c>
+      <c r="I52">
+        <v>316.64</v>
+      </c>
+      <c r="J52">
+        <v>6160.2420000000002</v>
+      </c>
+      <c r="K52">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>-1265.5309999999999</v>
+      </c>
+      <c r="N52">
+        <v>710.23400000000004</v>
+      </c>
+      <c r="O52">
+        <v>7375.0720000000001</v>
+      </c>
+      <c r="P52">
+        <v>6718.1220000000003</v>
+      </c>
+      <c r="Q52">
+        <v>275.90300000000002</v>
+      </c>
+      <c r="R52">
+        <v>41425</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>3075.3820000000001</v>
+      </c>
+      <c r="U52">
+        <v>725.26700000000005</v>
+      </c>
+      <c r="V52">
+        <v>-77.578999999999994</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>399.99400000000003</v>
+      </c>
+      <c r="Y52">
+        <v>332.96499999999997</v>
+      </c>
+      <c r="Z52">
+        <v>-1.161</v>
+      </c>
+      <c r="AA52">
+        <v>146.65100000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41517</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>140.274</v>
+      </c>
+      <c r="D53">
+        <v>3382.752</v>
+      </c>
+      <c r="E53">
+        <v>85.549000000000007</v>
+      </c>
+      <c r="F53">
+        <v>519.16499999999996</v>
+      </c>
+      <c r="G53">
+        <v>2481.41</v>
+      </c>
+      <c r="H53">
+        <v>10933.773999999999</v>
+      </c>
+      <c r="I53">
+        <v>346.15199999999999</v>
+      </c>
+      <c r="J53">
+        <v>6512.3280000000004</v>
+      </c>
+      <c r="K53">
+        <v>1.7390000000000001</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>729.91899999999998</v>
+      </c>
+      <c r="O53">
+        <v>7748.9949999999999</v>
+      </c>
+      <c r="P53">
+        <v>7074.83</v>
+      </c>
+      <c r="Q53">
+        <v>24.765000000000001</v>
+      </c>
+      <c r="R53">
+        <v>41517</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>3184.779</v>
+      </c>
+      <c r="U53">
+        <v>750.03200000000004</v>
+      </c>
+      <c r="V53">
+        <v>-186.03</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>312.96800000000002</v>
+      </c>
+      <c r="Y53">
+        <v>325.49200000000002</v>
+      </c>
+      <c r="Z53">
+        <v>-0.21099999999999999</v>
+      </c>
+      <c r="AA53">
+        <v>140.274</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41608</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>106.452</v>
+      </c>
+      <c r="D54">
+        <v>3079.7069999999999</v>
+      </c>
+      <c r="E54">
+        <v>68.027000000000001</v>
+      </c>
+      <c r="F54">
+        <v>465.62599999999998</v>
+      </c>
+      <c r="G54">
+        <v>2558.7939999999999</v>
+      </c>
+      <c r="H54">
+        <v>11303.875</v>
+      </c>
+      <c r="I54">
+        <v>364.589</v>
+      </c>
+      <c r="J54">
+        <v>6755.5339999999997</v>
+      </c>
+      <c r="K54">
+        <v>1.2869999999999999</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>748.601</v>
+      </c>
+      <c r="O54">
+        <v>8015.5060000000003</v>
+      </c>
+      <c r="P54">
+        <v>7312.8729999999996</v>
+      </c>
+      <c r="Q54">
+        <v>-85.274000000000001</v>
+      </c>
+      <c r="R54">
+        <v>41608</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>3288.3690000000001</v>
+      </c>
+      <c r="U54">
+        <v>664.75800000000004</v>
+      </c>
+      <c r="V54">
+        <v>-229.53100000000001</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>224.27099999999999</v>
+      </c>
+      <c r="Y54">
+        <v>320.791</v>
+      </c>
+      <c r="Z54">
+        <v>1.3720000000000001</v>
+      </c>
+      <c r="AA54">
+        <v>106.452</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41698</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>99.209000000000003</v>
+      </c>
+      <c r="D55">
+        <v>3215.2829999999999</v>
+      </c>
+      <c r="E55">
+        <v>79.923000000000002</v>
+      </c>
+      <c r="F55">
+        <v>464.96199999999999</v>
+      </c>
+      <c r="G55">
+        <v>2643.2240000000002</v>
+      </c>
+      <c r="H55">
+        <v>11707.156999999999</v>
+      </c>
+      <c r="I55">
+        <v>426.14100000000002</v>
+      </c>
+      <c r="J55">
+        <v>7024.5060000000003</v>
+      </c>
+      <c r="K55">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>875.49699999999996</v>
+      </c>
+      <c r="O55">
+        <v>8390.16</v>
+      </c>
+      <c r="P55">
+        <v>7584.7610000000004</v>
+      </c>
+      <c r="Q55">
+        <v>-36.856999999999999</v>
+      </c>
+      <c r="R55">
+        <v>41698</v>
+      </c>
+      <c r="S55">
+        <v>20171</v>
+      </c>
+      <c r="T55">
+        <v>3316.9969999999998</v>
+      </c>
+      <c r="U55">
+        <v>627.90099999999995</v>
+      </c>
+      <c r="V55">
+        <v>-120.023</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>191.148</v>
+      </c>
+      <c r="Y55">
+        <v>315.92500000000001</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>99.209000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41790</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>169.65299999999999</v>
+      </c>
+      <c r="D56">
+        <v>3897.1959999999999</v>
+      </c>
+      <c r="E56">
+        <v>97.81</v>
+      </c>
+      <c r="F56">
+        <v>596.346</v>
+      </c>
+      <c r="G56">
+        <v>2636.7359999999999</v>
+      </c>
+      <c r="H56">
+        <v>12148.96</v>
+      </c>
+      <c r="I56">
+        <v>430.98500000000001</v>
+      </c>
+      <c r="J56">
+        <v>7373.0029999999997</v>
+      </c>
+      <c r="K56">
+        <v>1.242</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>-1522.673</v>
+      </c>
+      <c r="N56">
+        <v>962.15800000000002</v>
+      </c>
+      <c r="O56">
+        <v>8819.5879999999997</v>
+      </c>
+      <c r="P56">
+        <v>7965.8239999999996</v>
+      </c>
+      <c r="Q56">
+        <v>-95.71</v>
+      </c>
+      <c r="R56">
+        <v>41790</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>3329.3719999999998</v>
+      </c>
+      <c r="U56">
+        <v>532.19100000000003</v>
+      </c>
+      <c r="V56">
+        <v>-209.08</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>207.489</v>
+      </c>
+      <c r="Y56">
+        <v>315.762</v>
+      </c>
+      <c r="Z56">
+        <v>-2.766</v>
+      </c>
+      <c r="AA56">
+        <v>169.65299999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41882</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>154.518</v>
+      </c>
+      <c r="D57">
+        <v>3749.8939999999998</v>
+      </c>
+      <c r="E57">
+        <v>108.85899999999999</v>
+      </c>
+      <c r="F57">
+        <v>555.91300000000001</v>
+      </c>
+      <c r="G57">
+        <v>2516.442</v>
+      </c>
+      <c r="H57">
+        <v>12399.913</v>
+      </c>
+      <c r="I57">
+        <v>417.05799999999999</v>
+      </c>
+      <c r="J57">
+        <v>7648.2839999999997</v>
+      </c>
+      <c r="K57">
+        <v>2.2290000000000001</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>906.92700000000002</v>
+      </c>
+      <c r="O57">
+        <v>9041.9259999999995</v>
+      </c>
+      <c r="P57">
+        <v>8243.1180000000004</v>
+      </c>
+      <c r="Q57">
+        <v>-177.59100000000001</v>
+      </c>
+      <c r="R57">
+        <v>41882</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>3357.9870000000001</v>
+      </c>
+      <c r="U57">
+        <v>354.6</v>
+      </c>
+      <c r="V57">
+        <v>-227.53899999999999</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>139.62200000000001</v>
+      </c>
+      <c r="Y57">
+        <v>310.68900000000002</v>
+      </c>
+      <c r="Z57">
+        <v>2.766</v>
+      </c>
+      <c r="AA57">
+        <v>154.518</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>41973</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>130.04900000000001</v>
+      </c>
+      <c r="D58">
+        <v>3557.9340000000002</v>
+      </c>
+      <c r="E58">
+        <v>88.18</v>
+      </c>
+      <c r="F58">
+        <v>536.34199999999998</v>
+      </c>
+      <c r="G58">
+        <v>2573.252</v>
+      </c>
+      <c r="H58">
+        <v>12843.406000000001</v>
+      </c>
+      <c r="I58">
+        <v>459.92899999999997</v>
+      </c>
+      <c r="J58">
+        <v>8238.6260000000002</v>
+      </c>
+      <c r="K58">
+        <v>2.5739999999999998</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>928.18200000000002</v>
+      </c>
+      <c r="O58">
+        <v>9661.2540000000008</v>
+      </c>
+      <c r="P58">
+        <v>8815.6929999999993</v>
+      </c>
+      <c r="Q58">
+        <v>-164.72</v>
+      </c>
+      <c r="R58">
+        <v>41973</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>3182.152</v>
+      </c>
+      <c r="U58">
+        <v>189.88</v>
+      </c>
+      <c r="V58">
+        <v>-347.99599999999998</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>265.65100000000001</v>
+      </c>
+      <c r="Y58">
+        <v>311.77100000000002</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>130.04900000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42063</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>143.13800000000001</v>
+      </c>
+      <c r="D59">
+        <v>3668.5920000000001</v>
+      </c>
+      <c r="E59">
+        <v>137.69</v>
+      </c>
+      <c r="F59">
+        <v>566.22</v>
+      </c>
+      <c r="G59">
+        <v>2590.9380000000001</v>
+      </c>
+      <c r="H59">
+        <v>13198.200999999999</v>
+      </c>
+      <c r="I59">
+        <v>454.81</v>
+      </c>
+      <c r="J59">
+        <v>8512.4660000000003</v>
+      </c>
+      <c r="K59">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>997.173</v>
+      </c>
+      <c r="O59">
+        <v>10041.415999999999</v>
+      </c>
+      <c r="P59">
+        <v>9109.2520000000004</v>
+      </c>
+      <c r="Q59">
+        <v>-162.274</v>
+      </c>
+      <c r="R59">
+        <v>42063</v>
+      </c>
+      <c r="S59">
+        <v>22064</v>
+      </c>
+      <c r="T59">
+        <v>3156.7849999999999</v>
+      </c>
+      <c r="U59">
+        <v>27.606000000000002</v>
+      </c>
+      <c r="V59">
+        <v>-183.51499999999999</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>115.81699999999999</v>
+      </c>
+      <c r="Y59">
+        <v>306.28399999999999</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>143.13800000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42155</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>181.97399999999999</v>
+      </c>
+      <c r="D60">
+        <v>4179.7879999999996</v>
+      </c>
+      <c r="E60">
+        <v>103.663</v>
+      </c>
+      <c r="F60">
+        <v>652.90200000000004</v>
+      </c>
+      <c r="G60">
+        <v>2665.8249999999998</v>
+      </c>
+      <c r="H60">
+        <v>13670.677</v>
+      </c>
+      <c r="I60">
+        <v>443.82</v>
+      </c>
+      <c r="J60">
+        <v>8874.7729999999992</v>
+      </c>
+      <c r="K60">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="L60">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="M60">
+        <v>-2690.9630000000002</v>
+      </c>
+      <c r="N60">
+        <v>999.57299999999998</v>
+      </c>
+      <c r="O60">
+        <v>10396.011</v>
+      </c>
+      <c r="P60">
+        <v>9488.64</v>
+      </c>
+      <c r="Q60">
+        <v>324.09199999999998</v>
+      </c>
+      <c r="R60">
+        <v>42155</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>3274.6660000000002</v>
+      </c>
+      <c r="U60">
+        <v>351.69799999999998</v>
+      </c>
+      <c r="V60">
+        <v>117.554</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>303.61500000000001</v>
+      </c>
+      <c r="Y60">
+        <v>301.48</v>
+      </c>
+      <c r="Z60">
+        <v>-3.87</v>
+      </c>
+      <c r="AA60">
+        <v>181.97399999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42247</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>172.22800000000001</v>
+      </c>
+      <c r="D61">
+        <v>4054.7130000000002</v>
+      </c>
+      <c r="E61">
+        <v>100.83199999999999</v>
+      </c>
+      <c r="F61">
+        <v>619.649</v>
+      </c>
+      <c r="G61">
+        <v>2503.7249999999999</v>
+      </c>
+      <c r="H61">
+        <v>13952.565000000001</v>
+      </c>
+      <c r="I61">
+        <v>450.38200000000001</v>
+      </c>
+      <c r="J61">
+        <v>9156.2270000000008</v>
+      </c>
+      <c r="K61">
+        <v>2.1219999999999999</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1001.977</v>
+      </c>
+      <c r="O61">
+        <v>10741.581</v>
+      </c>
+      <c r="P61">
+        <v>9838.107</v>
+      </c>
+      <c r="Q61">
+        <v>-251.221</v>
+      </c>
+      <c r="R61">
+        <v>42247</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>3210.9839999999999</v>
+      </c>
+      <c r="U61">
+        <v>100.477</v>
+      </c>
+      <c r="V61">
+        <v>-202.298</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>53.481999999999999</v>
+      </c>
+      <c r="Y61">
+        <v>357.82499999999999</v>
+      </c>
+      <c r="Z61">
+        <v>-0.38400000000000001</v>
+      </c>
+      <c r="AA61">
+        <v>172.22800000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42338</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>128.19900000000001</v>
+      </c>
+      <c r="D62">
+        <v>3716.3690000000001</v>
+      </c>
+      <c r="E62">
+        <v>88.53</v>
+      </c>
+      <c r="F62">
+        <v>556.64700000000005</v>
+      </c>
+      <c r="G62">
+        <v>2634.8829999999998</v>
+      </c>
+      <c r="H62">
+        <v>14381.165000000001</v>
+      </c>
+      <c r="I62">
+        <v>420.85599999999999</v>
+      </c>
+      <c r="J62">
+        <v>9924.09</v>
+      </c>
+      <c r="K62">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>923.55399999999997</v>
+      </c>
+      <c r="O62">
+        <v>11469.41</v>
+      </c>
+      <c r="P62">
+        <v>10606.483</v>
+      </c>
+      <c r="Q62">
+        <v>-67.131</v>
+      </c>
+      <c r="R62">
+        <v>42338</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>2911.7550000000001</v>
+      </c>
+      <c r="U62">
+        <v>33.345999999999997</v>
+      </c>
+      <c r="V62">
+        <v>-296.83499999999998</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>304.84100000000001</v>
+      </c>
+      <c r="Y62">
+        <v>391.85599999999999</v>
+      </c>
+      <c r="Z62">
+        <v>-0.40400000000000003</v>
+      </c>
+      <c r="AA62">
+        <v>128.19900000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42429</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>141.02699999999999</v>
+      </c>
+      <c r="D63">
+        <v>3881.7049999999999</v>
+      </c>
+      <c r="E63">
+        <v>132.17099999999999</v>
+      </c>
+      <c r="F63">
+        <v>581.59799999999996</v>
+      </c>
+      <c r="G63">
+        <v>2471.7809999999999</v>
+      </c>
+      <c r="H63">
+        <v>14459.911</v>
+      </c>
+      <c r="I63">
+        <v>441.74599999999998</v>
+      </c>
+      <c r="J63">
+        <v>9920.3349999999991</v>
+      </c>
+      <c r="K63">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1005.193</v>
+      </c>
+      <c r="O63">
+        <v>11555.125</v>
+      </c>
+      <c r="P63">
+        <v>10636.166999999999</v>
+      </c>
+      <c r="Q63">
+        <v>4.048</v>
+      </c>
+      <c r="R63">
+        <v>42429</v>
+      </c>
+      <c r="S63">
+        <v>22429</v>
+      </c>
+      <c r="T63">
+        <v>2904.7860000000001</v>
+      </c>
+      <c r="U63">
+        <v>37.393999999999998</v>
+      </c>
+      <c r="V63">
+        <v>232.68600000000001</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-124.462</v>
+      </c>
+      <c r="Y63">
+        <v>400.32299999999998</v>
+      </c>
+      <c r="Z63">
+        <v>4.6580000000000004</v>
+      </c>
+      <c r="AA63">
+        <v>141.02699999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42521</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>175.36</v>
+      </c>
+      <c r="D64">
+        <v>4310.4859999999999</v>
+      </c>
+      <c r="E64">
+        <v>102.541</v>
+      </c>
+      <c r="F64">
+        <v>673.39499999999998</v>
+      </c>
+      <c r="G64">
+        <v>2416.58</v>
+      </c>
+      <c r="H64">
+        <v>14789.927</v>
+      </c>
+      <c r="I64">
+        <v>454.52199999999999</v>
+      </c>
+      <c r="J64">
+        <v>10091.457</v>
+      </c>
+      <c r="K64">
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>-3164.268</v>
+      </c>
+      <c r="N64">
+        <v>1083.374</v>
+      </c>
+      <c r="O64">
+        <v>11817.642</v>
+      </c>
+      <c r="P64">
+        <v>10844.767</v>
+      </c>
+      <c r="Q64">
+        <v>15.180999999999999</v>
+      </c>
+      <c r="R64">
+        <v>42521</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>2972.2849999999999</v>
+      </c>
+      <c r="U64">
+        <v>52.575000000000003</v>
+      </c>
+      <c r="V64">
+        <v>87.606999999999999</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>50.823999999999998</v>
+      </c>
+      <c r="Y64">
+        <v>419.875</v>
+      </c>
+      <c r="Z64">
+        <v>-2.4</v>
+      </c>
+      <c r="AA64">
+        <v>175.36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42613</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>162.36199999999999</v>
+      </c>
+      <c r="D65">
+        <v>4187.4480000000003</v>
+      </c>
+      <c r="E65">
+        <v>94.576999999999998</v>
+      </c>
+      <c r="F65">
+        <v>641.33100000000002</v>
+      </c>
+      <c r="G65">
+        <v>2755.3470000000002</v>
+      </c>
+      <c r="H65">
+        <v>15504.332</v>
+      </c>
+      <c r="I65">
+        <v>486.94299999999998</v>
+      </c>
+      <c r="J65">
+        <v>10703.373</v>
+      </c>
+      <c r="K65">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1084.3630000000001</v>
+      </c>
+      <c r="O65">
+        <v>12441.986999999999</v>
+      </c>
+      <c r="P65">
+        <v>11481.808000000001</v>
+      </c>
+      <c r="Q65">
+        <v>263.45600000000002</v>
+      </c>
+      <c r="R65">
+        <v>42613</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>3062.3449999999998</v>
+      </c>
+      <c r="U65">
+        <v>316.03100000000001</v>
+      </c>
+      <c r="V65">
+        <v>-120.616</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>522.97900000000004</v>
+      </c>
+      <c r="Y65">
+        <v>427.27300000000002</v>
+      </c>
+      <c r="Z65">
+        <v>-3.6579999999999999</v>
+      </c>
+      <c r="AA65">
+        <v>162.36199999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42704</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>136.64500000000001</v>
+      </c>
+      <c r="D66">
+        <v>3894.2240000000002</v>
+      </c>
+      <c r="E66">
+        <v>92.003</v>
+      </c>
+      <c r="F66">
+        <v>592.49400000000003</v>
+      </c>
+      <c r="G66">
+        <v>2684.2779999999998</v>
+      </c>
+      <c r="H66">
+        <v>15760.066999999999</v>
+      </c>
+      <c r="I66">
+        <v>476.43900000000002</v>
+      </c>
+      <c r="J66">
+        <v>11017.562</v>
+      </c>
+      <c r="K66">
+        <v>0.88</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1027.7170000000001</v>
+      </c>
+      <c r="O66">
+        <v>12744.683000000001</v>
+      </c>
+      <c r="P66">
+        <v>11809.148999999999</v>
+      </c>
+      <c r="Q66">
+        <v>-292.31799999999998</v>
+      </c>
+      <c r="R66">
+        <v>42704</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>3015.384</v>
+      </c>
+      <c r="U66">
+        <v>23.713000000000001</v>
+      </c>
+      <c r="V66">
+        <v>-303.03699999999998</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>86.774000000000001</v>
+      </c>
+      <c r="Y66">
+        <v>466.96499999999997</v>
+      </c>
+      <c r="Z66">
+        <v>-0.54800000000000004</v>
+      </c>
+      <c r="AA66">
+        <v>136.64500000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42794</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>152.60300000000001</v>
+      </c>
+      <c r="D67">
+        <v>4244.96</v>
+      </c>
+      <c r="E67">
+        <v>152.38800000000001</v>
+      </c>
+      <c r="F67">
+        <v>645.05799999999999</v>
+      </c>
+      <c r="G67">
+        <v>2873.63</v>
+      </c>
+      <c r="H67">
+        <v>16279.356</v>
+      </c>
+      <c r="I67">
+        <v>494.98899999999998</v>
+      </c>
+      <c r="J67">
+        <v>11339.793</v>
+      </c>
+      <c r="K67">
+        <v>6.2E-2</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1105.787</v>
+      </c>
+      <c r="O67">
+        <v>13170.776</v>
+      </c>
+      <c r="P67">
+        <v>12169.704</v>
+      </c>
+      <c r="Q67">
+        <v>14.702999999999999</v>
+      </c>
+      <c r="R67">
+        <v>42794</v>
+      </c>
+      <c r="S67">
+        <v>24344</v>
+      </c>
+      <c r="T67">
+        <v>3108.58</v>
+      </c>
+      <c r="U67">
+        <v>38.415999999999997</v>
+      </c>
+      <c r="V67">
+        <v>-119.265</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>261.32900000000001</v>
+      </c>
+      <c r="Y67">
+        <v>486.64499999999998</v>
+      </c>
+      <c r="Z67">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="AA67">
+        <v>152.60300000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42886</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>211.702</v>
+      </c>
+      <c r="D68">
+        <v>4749.0339999999997</v>
+      </c>
+      <c r="E68">
+        <v>104.745</v>
+      </c>
+      <c r="F68">
+        <v>758.30100000000004</v>
+      </c>
+      <c r="G68">
+        <v>2734.5439999999999</v>
+      </c>
+      <c r="H68">
+        <v>16475.688999999998</v>
+      </c>
+      <c r="I68">
+        <v>510.57400000000001</v>
+      </c>
+      <c r="J68">
+        <v>11441.476000000001</v>
+      </c>
+      <c r="K68">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>-3068.4029999999998</v>
+      </c>
+      <c r="N68">
+        <v>1166.67</v>
+      </c>
+      <c r="O68">
+        <v>13323.561</v>
+      </c>
+      <c r="P68">
+        <v>12275.166999999999</v>
+      </c>
+      <c r="Q68">
+        <v>31.791</v>
+      </c>
+      <c r="R68">
+        <v>42886</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>3152.1280000000002</v>
+      </c>
+      <c r="U68">
+        <v>60.08</v>
+      </c>
+      <c r="V68">
+        <v>191.49299999999999</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-79.468999999999994</v>
+      </c>
+      <c r="Y68">
+        <v>484.39400000000001</v>
+      </c>
+      <c r="Z68">
+        <v>-0.81699999999999995</v>
+      </c>
+      <c r="AA68">
+        <v>211.702</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>42978</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>181.42400000000001</v>
+      </c>
+      <c r="D69">
+        <v>4600.24</v>
+      </c>
+      <c r="E69">
+        <v>99.733000000000004</v>
+      </c>
+      <c r="F69">
+        <v>711.94100000000003</v>
+      </c>
+      <c r="G69">
+        <v>2803.335</v>
+      </c>
+      <c r="H69">
+        <v>16875.733</v>
+      </c>
+      <c r="I69">
+        <v>568.03599999999994</v>
+      </c>
+      <c r="J69">
+        <v>11740.804</v>
+      </c>
+      <c r="K69">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1201.557</v>
+      </c>
+      <c r="O69">
+        <v>13674.746999999999</v>
+      </c>
+      <c r="P69">
+        <v>12600.694</v>
+      </c>
+      <c r="Q69">
+        <v>-15.374000000000001</v>
+      </c>
+      <c r="R69">
+        <v>42978</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>3200.9859999999999</v>
+      </c>
+      <c r="U69">
+        <v>25.765000000000001</v>
+      </c>
+      <c r="V69">
+        <v>-110.396</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>170.77699999999999</v>
+      </c>
+      <c r="Y69">
+        <v>493.2</v>
+      </c>
+      <c r="Z69">
+        <v>-0.157</v>
+      </c>
+      <c r="AA69">
+        <v>181.42400000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43069</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>148.84</v>
+      </c>
+      <c r="D70">
+        <v>4324.1170000000002</v>
+      </c>
+      <c r="E70">
+        <v>95.840999999999994</v>
+      </c>
+      <c r="F70">
+        <v>641.99800000000005</v>
+      </c>
+      <c r="G70">
+        <v>3004.9229999999998</v>
+      </c>
+      <c r="H70">
+        <v>17303.414000000001</v>
+      </c>
+      <c r="I70">
+        <v>519.98400000000004</v>
+      </c>
+      <c r="J70">
+        <v>12160.369000000001</v>
+      </c>
+      <c r="K70">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1111.6780000000001</v>
+      </c>
+      <c r="O70">
+        <v>14002.687</v>
+      </c>
+      <c r="P70">
+        <v>13009.634</v>
+      </c>
+      <c r="Q70">
+        <v>-14.653</v>
+      </c>
+      <c r="R70">
+        <v>43069</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>3300.7269999999999</v>
+      </c>
+      <c r="U70">
+        <v>26.286999999999999</v>
+      </c>
+      <c r="V70">
+        <v>-274.21899999999999</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>337.18700000000001</v>
+      </c>
+      <c r="Y70">
+        <v>490.96800000000002</v>
+      </c>
+      <c r="Z70">
+        <v>-5.1719999999999997</v>
+      </c>
+      <c r="AA70">
+        <v>148.84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43159</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>122.146</v>
+      </c>
+      <c r="D71">
+        <v>4303.4179999999997</v>
+      </c>
+      <c r="E71">
+        <v>133.321</v>
+      </c>
+      <c r="F71">
+        <v>637.80100000000004</v>
+      </c>
+      <c r="G71">
+        <v>3061.444</v>
+      </c>
+      <c r="H71">
+        <v>17486.272000000001</v>
+      </c>
+      <c r="I71">
+        <v>529.73299999999995</v>
+      </c>
+      <c r="J71">
+        <v>12262.442999999999</v>
+      </c>
+      <c r="K71">
+        <v>0.127</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1174.058</v>
+      </c>
+      <c r="O71">
+        <v>14169.423000000001</v>
+      </c>
+      <c r="P71">
+        <v>13118.366</v>
+      </c>
+      <c r="Q71">
+        <v>29.268999999999998</v>
+      </c>
+      <c r="R71">
+        <v>43159</v>
+      </c>
+      <c r="S71">
+        <v>25110</v>
+      </c>
+      <c r="T71">
+        <v>3316.8490000000002</v>
+      </c>
+      <c r="U71">
+        <v>44.524999999999999</v>
+      </c>
+      <c r="V71">
+        <v>112.572</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-15.048999999999999</v>
+      </c>
+      <c r="Y71">
+        <v>490.36900000000003</v>
+      </c>
+      <c r="Z71">
+        <v>1.002</v>
+      </c>
+      <c r="AA71">
+        <v>122.146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43251</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>238.65600000000001</v>
+      </c>
+      <c r="D72">
+        <v>5024.8919999999998</v>
+      </c>
+      <c r="E72">
+        <v>101.351</v>
+      </c>
+      <c r="F72">
+        <v>776.93299999999999</v>
+      </c>
+      <c r="G72">
+        <v>2957.4940000000001</v>
+      </c>
+      <c r="H72">
+        <v>17756.167000000001</v>
+      </c>
+      <c r="I72">
+        <v>586.33699999999999</v>
+      </c>
+      <c r="J72">
+        <v>12363.736000000001</v>
+      </c>
+      <c r="K72">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>-3360.7890000000002</v>
+      </c>
+      <c r="N72">
+        <v>1288.202</v>
+      </c>
+      <c r="O72">
+        <v>14372.406000000001</v>
+      </c>
+      <c r="P72">
+        <v>13254.393</v>
+      </c>
+      <c r="Q72">
+        <v>66.337999999999994</v>
+      </c>
+      <c r="R72">
+        <v>43251</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>3383.761</v>
+      </c>
+      <c r="U72">
+        <v>76.347999999999999</v>
+      </c>
+      <c r="V72">
+        <v>230.84899999999999</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-80.093999999999994</v>
+      </c>
+      <c r="Y72">
+        <v>497.416</v>
+      </c>
+      <c r="Z72">
+        <v>-5.0170000000000003</v>
+      </c>
+      <c r="AA72">
+        <v>238.65600000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43343</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>220.89</v>
+      </c>
+      <c r="D73">
+        <v>5008.2349999999997</v>
+      </c>
+      <c r="E73">
+        <v>104.883</v>
+      </c>
+      <c r="F73">
+        <v>760.303</v>
+      </c>
+      <c r="G73">
+        <v>3022.087</v>
+      </c>
+      <c r="H73">
+        <v>18176.505000000001</v>
+      </c>
+      <c r="I73">
+        <v>605.53499999999997</v>
+      </c>
+      <c r="J73">
+        <v>12672.154</v>
+      </c>
+      <c r="K73">
+        <v>3.2959999999999998</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1283.461</v>
+      </c>
+      <c r="O73">
+        <v>14694.387000000001</v>
+      </c>
+      <c r="P73">
+        <v>13589.032999999999</v>
+      </c>
+      <c r="Q73">
+        <v>-22.056999999999999</v>
+      </c>
+      <c r="R73">
+        <v>43343</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>3482.1179999999999</v>
+      </c>
+      <c r="U73">
+        <v>37.146999999999998</v>
+      </c>
+      <c r="V73">
+        <v>-119.964</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>188.43799999999999</v>
+      </c>
+      <c r="Y73">
+        <v>505.16699999999997</v>
+      </c>
+      <c r="Z73">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="AA73">
+        <v>220.89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43434</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>190.31100000000001</v>
+      </c>
+      <c r="D74">
+        <v>4543.6710000000003</v>
+      </c>
+      <c r="E74">
+        <v>111.15600000000001</v>
+      </c>
+      <c r="F74">
+        <v>678.96199999999999</v>
+      </c>
+      <c r="G74">
+        <v>3057.4189999999999</v>
+      </c>
+      <c r="H74">
+        <v>18396.812000000002</v>
+      </c>
+      <c r="I74">
+        <v>558.32399999999996</v>
+      </c>
+      <c r="J74">
+        <v>12989.406000000001</v>
+      </c>
+      <c r="K74">
+        <v>0.436</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1224.873</v>
+      </c>
+      <c r="O74">
+        <v>14961.699000000001</v>
+      </c>
+      <c r="P74">
+        <v>13878.993</v>
+      </c>
+      <c r="Q74">
+        <v>-29.831</v>
+      </c>
+      <c r="R74">
+        <v>43434</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>3435.1129999999998</v>
+      </c>
+      <c r="U74">
+        <v>35.048999999999999</v>
+      </c>
+      <c r="V74">
+        <v>3.7450000000000001</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>38.472999999999999</v>
+      </c>
+      <c r="Y74">
+        <v>504.77600000000001</v>
+      </c>
+      <c r="Z74">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="AA74">
+        <v>190.31100000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43524</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>192.55600000000001</v>
+      </c>
+      <c r="D75">
+        <v>4569.2020000000002</v>
+      </c>
+      <c r="E75">
+        <v>139.85</v>
+      </c>
+      <c r="F75">
+        <v>703.08299999999997</v>
+      </c>
+      <c r="G75">
+        <v>3214.0129999999999</v>
+      </c>
+      <c r="H75">
+        <v>18717.866999999998</v>
+      </c>
+      <c r="I75">
+        <v>593.17100000000005</v>
+      </c>
+      <c r="J75">
+        <v>13776.534</v>
+      </c>
+      <c r="K75">
+        <v>1.129</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1311.509</v>
+      </c>
+      <c r="O75">
+        <v>15360.839</v>
+      </c>
+      <c r="P75">
+        <v>14172.884</v>
+      </c>
+      <c r="Q75">
+        <v>26.029</v>
+      </c>
+      <c r="R75">
+        <v>43524</v>
+      </c>
+      <c r="S75">
+        <v>25946</v>
+      </c>
+      <c r="T75">
+        <v>3357.0279999999998</v>
+      </c>
+      <c r="U75">
+        <v>46.938000000000002</v>
+      </c>
+      <c r="V75">
+        <v>48.341000000000001</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>39.204000000000001</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>-0.20300000000000001</v>
+      </c>
+      <c r="AA75">
+        <v>192.55600000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>266.74400000000003</v>
+      </c>
+      <c r="D76">
+        <v>5632.518</v>
+      </c>
+      <c r="E76">
+        <v>133.87899999999999</v>
+      </c>
+      <c r="F76">
+        <v>858.34199999999998</v>
+      </c>
+      <c r="G76">
+        <v>3283.7449999999999</v>
+      </c>
+      <c r="H76">
+        <v>19714.475999999999</v>
+      </c>
+      <c r="I76">
+        <v>656.90200000000004</v>
+      </c>
+      <c r="J76">
+        <v>14027.714</v>
+      </c>
+      <c r="K76">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="L76">
+        <v>-0.45800000000000002</v>
+      </c>
+      <c r="M76">
+        <v>-4302.7330000000002</v>
+      </c>
+      <c r="N76">
+        <v>1485.402</v>
+      </c>
+      <c r="O76">
+        <v>16261.721</v>
+      </c>
+      <c r="P76">
+        <v>15023.74</v>
+      </c>
+      <c r="Q76">
+        <v>37.972999999999999</v>
+      </c>
+      <c r="R76">
+        <v>43616</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>3452.7550000000001</v>
+      </c>
+      <c r="U76">
+        <v>42.197000000000003</v>
+      </c>
+      <c r="V76">
+        <v>43.201000000000001</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>80.882999999999996</v>
+      </c>
+      <c r="Y76">
+        <v>530.505</v>
+      </c>
+      <c r="Z76">
+        <v>-7.1429999999999998</v>
+      </c>
+      <c r="AA76">
+        <v>266.74400000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43708</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>233.59899999999999</v>
+      </c>
+      <c r="D77">
+        <v>5476.8509999999997</v>
+      </c>
+      <c r="E77">
+        <v>141.09100000000001</v>
+      </c>
+      <c r="F77">
+        <v>807.58399999999995</v>
+      </c>
+      <c r="G77">
+        <v>3384.9389999999999</v>
+      </c>
+      <c r="H77">
+        <v>20140.254000000001</v>
+      </c>
+      <c r="I77">
+        <v>628.50699999999995</v>
+      </c>
+      <c r="J77">
+        <v>14384.129000000001</v>
+      </c>
+      <c r="K77">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1396.704</v>
+      </c>
+      <c r="O77">
+        <v>16528.697</v>
+      </c>
+      <c r="P77">
+        <v>15373.745000000001</v>
+      </c>
+      <c r="Q77">
+        <v>4.258</v>
+      </c>
+      <c r="R77">
+        <v>43708</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>3611.5569999999998</v>
+      </c>
+      <c r="U77">
+        <v>40.737000000000002</v>
+      </c>
+      <c r="V77">
+        <v>-168.65700000000001</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>265.67200000000003</v>
+      </c>
+      <c r="Y77">
+        <v>520.63900000000001</v>
+      </c>
+      <c r="Z77">
+        <v>-0.38100000000000001</v>
+      </c>
+      <c r="AA77">
+        <v>233.59899999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43799</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>173.15600000000001</v>
+      </c>
+      <c r="D78">
+        <v>5068.9279999999999</v>
+      </c>
+      <c r="E78">
+        <v>142.73699999999999</v>
+      </c>
+      <c r="F78">
+        <v>727.68</v>
+      </c>
+      <c r="G78">
+        <v>3450.2440000000001</v>
+      </c>
+      <c r="H78">
+        <v>20487.23</v>
+      </c>
+      <c r="I78">
+        <v>641.43399999999997</v>
+      </c>
+      <c r="J78">
+        <v>14604.254000000001</v>
+      </c>
+      <c r="K78">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1421.0409999999999</v>
+      </c>
+      <c r="O78">
+        <v>16789.177</v>
+      </c>
+      <c r="P78">
+        <v>15572.254000000001</v>
+      </c>
+      <c r="Q78">
+        <v>-7.5789999999999997</v>
+      </c>
+      <c r="R78">
+        <v>43799</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>3698.0529999999999</v>
+      </c>
+      <c r="U78">
+        <v>56.582999999999998</v>
+      </c>
+      <c r="V78">
+        <v>7.55</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>62.59</v>
+      </c>
+      <c r="Y78">
+        <v>525.85299999999995</v>
+      </c>
+      <c r="Z78">
+        <v>0.111</v>
+      </c>
+      <c r="AA78">
+        <v>173.15600000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>214.934</v>
+      </c>
+      <c r="D79">
+        <v>5245.79</v>
+      </c>
+      <c r="E79">
+        <v>191.09</v>
+      </c>
+      <c r="F79">
+        <v>784.76400000000001</v>
+      </c>
+      <c r="G79">
+        <v>3663.6869999999999</v>
+      </c>
+      <c r="H79">
+        <v>21082.182000000001</v>
+      </c>
+      <c r="I79">
+        <v>737.14400000000001</v>
+      </c>
+      <c r="J79">
+        <v>14944.056</v>
+      </c>
+      <c r="K79">
+        <v>0.04</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1534.7070000000001</v>
+      </c>
+      <c r="O79">
+        <v>17313.307000000001</v>
+      </c>
+      <c r="P79">
+        <v>15933.556</v>
+      </c>
+      <c r="Q79">
+        <v>26.361000000000001</v>
+      </c>
+      <c r="R79">
+        <v>43890</v>
+      </c>
+      <c r="S79">
+        <v>27050</v>
+      </c>
+      <c r="T79">
+        <v>3768.875</v>
+      </c>
+      <c r="U79">
+        <v>58.210999999999999</v>
+      </c>
+      <c r="V79">
+        <v>-118.7</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>277.83800000000002</v>
+      </c>
+      <c r="Y79">
+        <v>519.99800000000005</v>
+      </c>
+      <c r="Z79">
+        <v>-50.058</v>
+      </c>
+      <c r="AA79">
+        <v>214.934</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>4.9779999999999998</v>
+      </c>
+      <c r="D80">
+        <v>3511.2820000000002</v>
+      </c>
+      <c r="E80">
+        <v>145.018</v>
+      </c>
+      <c r="F80">
+        <v>405.13299999999998</v>
+      </c>
+      <c r="G80">
+        <v>3283.7310000000002</v>
+      </c>
+      <c r="H80">
+        <v>19972.531999999999</v>
+      </c>
+      <c r="I80">
+        <v>390.16</v>
+      </c>
+      <c r="J80">
+        <v>13881.102000000001</v>
+      </c>
+      <c r="K80">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>-3484.239</v>
+      </c>
+      <c r="N80">
+        <v>1151.0060000000001</v>
+      </c>
+      <c r="O80">
+        <v>16394.222000000002</v>
+      </c>
+      <c r="P80">
+        <v>15410.687</v>
+      </c>
+      <c r="Q80">
+        <v>604.75</v>
+      </c>
+      <c r="R80">
+        <v>43982</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>3578.31</v>
+      </c>
+      <c r="U80">
+        <v>658.02200000000005</v>
+      </c>
+      <c r="V80">
+        <v>1249.559</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>-579.73699999999997</v>
+      </c>
+      <c r="Y80">
+        <v>1053.377</v>
+      </c>
+      <c r="Z80">
+        <v>-2.2010000000000001</v>
+      </c>
+      <c r="AA80">
+        <v>4.9779999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>296.69600000000003</v>
+      </c>
+      <c r="D81">
+        <v>5652.2659999999996</v>
+      </c>
+      <c r="E81">
+        <v>203.155</v>
+      </c>
+      <c r="F81">
+        <v>899.33799999999997</v>
+      </c>
+      <c r="G81">
+        <v>4327.8590000000004</v>
+      </c>
+      <c r="H81">
+        <v>21246.306</v>
+      </c>
+      <c r="I81">
+        <v>683.71500000000003</v>
+      </c>
+      <c r="J81">
+        <v>14264.602999999999</v>
+      </c>
+      <c r="K81">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1598.942</v>
+      </c>
+      <c r="O81">
+        <v>17263.745999999999</v>
+      </c>
+      <c r="P81">
+        <v>15831.387000000001</v>
+      </c>
+      <c r="Q81">
+        <v>106.64100000000001</v>
+      </c>
+      <c r="R81">
+        <v>44074</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>3982.56</v>
+      </c>
+      <c r="U81">
+        <v>711.56100000000004</v>
+      </c>
+      <c r="V81">
+        <v>-359.78300000000002</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>493.709</v>
+      </c>
+      <c r="Y81">
+        <v>1060.479</v>
+      </c>
+      <c r="Z81">
+        <v>1.016</v>
+      </c>
+      <c r="AA81">
+        <v>296.69600000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>235.3</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>5473.4440000000004</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>168.97900000000001</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>807.875</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>3737.0970000000002</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>20932.848000000002</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>570.17399999999998</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>14481</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>1.008</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>1437.787</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>16804.371999999999</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>15500.603999999999</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-499.33800000000002</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44165</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>4128.4759999999997</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>236.643</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>-21.39</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>-448.22899999999998</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>533.22199999999998</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>1.2150000000000001</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>235.3</v>
       </c>
     </row>
